--- a/mosip_master/xlsx/location.xlsx
+++ b/mosip_master/xlsx/location.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="187">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -350,6 +350,240 @@
   </si>
   <si>
     <t xml:space="preserve">10114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ನನ್ನ ದೇಶ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ದೇಶ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ರಬತ್ ಸಲೆ ಕೆನಿತ್ರ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಪ್ರದೇಶ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಕೆನಿತ್ರಾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಪ್ರಾಂತ್ಯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ನಗರ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಬಿನ್ ಮನ್ಸೂರ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ವಲಯ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಕೋಡ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಮ್ನಸ್ರ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಮೈಗ್ರೇನ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಅಸ್ಸಾಂ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಮೆಹದಿಯಾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಎಣ್ಣೆಯ ಔಜಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಸಿಡಿ ತೈಬಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಸಿಡಿ ಅಲ್ಲಲ್ ತಾಜಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ರಬತ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಅಗ್ಡಾಲ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಕ್ವಾರ್ಟರ್ ಹಾಸನ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಸೌಯಿಸ್ಸಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಮದೀನತ್ ಅಲ್ ಇರ್ಫಾನೆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಹೇ ರಿಯಾದ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಮದೀನಾ ಡಿ ರಬತ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಎಲ್ ಯೂಸುಫಿಯಾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಕೋಡ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> मेरा देश</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> देश</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> रबात बिक्री केनित्र</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> क्षेत्र</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> केनिट्रा</t>
+  </si>
+  <si>
+    <t xml:space="preserve">प्रांत</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> शहर</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> बेन मंसूर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">डाक कोड</t>
+  </si>
+  <si>
+    <t xml:space="preserve">मनासरा</t>
+  </si>
+  <si>
+    <t xml:space="preserve">क्षेत्र</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> माइग्रेन</t>
+  </si>
+  <si>
+    <t xml:space="preserve">असम</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> मेहदिया</t>
+  </si>
+  <si>
+    <t xml:space="preserve">तेल से सना हुआ औजिक</t>
+  </si>
+  <si>
+    <t xml:space="preserve">सिदी ताइबि</t>
+  </si>
+  <si>
+    <t xml:space="preserve">सिदी अल्लाल ताज़िक</t>
+  </si>
+  <si>
+    <t xml:space="preserve">रबात</t>
+  </si>
+  <si>
+    <t xml:space="preserve">शहर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">अगडाला</t>
+  </si>
+  <si>
+    <t xml:space="preserve">क्वार्टियर हसन</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> सौइसी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">मदीनत अल इरफान</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> हे रियादो</t>
+  </si>
+  <si>
+    <t xml:space="preserve">मदीना दे रबातो</t>
+  </si>
+  <si>
+    <t xml:space="preserve">अल युसूफिया</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> डाक कोड</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tam</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> நாடு</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ரபத் சேல் கெனிட்ரா</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பிராந்தியம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">கெனிட்ரா</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மாகாணம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">நகரம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பென் மன்சூர்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மண்டலம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">குறியீடு</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ம்னஸ்ரா</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ஒற்றைத் தலைவலி</t>
+  </si>
+  <si>
+    <t xml:space="preserve">அசாம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">எண்ணெய் தடவிய Ouji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">சிடி தைபி</t>
+  </si>
+  <si>
+    <t xml:space="preserve">சிடி அல்லல் தாசி</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ரபாத்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">அக்டல்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">குவார்ட்டர் ஹாசன்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மதீனத் அல் இர்பானே</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ஹே ரியாட் </t>
+  </si>
+  <si>
+    <t xml:space="preserve">மதீனா டி ரபாத்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">எல் யூசோஃபியா</t>
   </si>
 </sst>
 </file>
@@ -447,7 +681,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -474,6 +708,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -557,10 +795,10 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G241"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="1:1048576"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A223" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C237" activeCellId="0" sqref="C237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3348,6 +3586,2757 @@
         <v>11</v>
       </c>
     </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D122" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D123" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D124" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D125" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D126" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D127" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D128" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D129" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D130" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D131" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D132" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D133" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D134" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D135" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D136" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D138" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D139" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D140" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D141" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D142" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D143" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D144" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D145" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D146" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D147" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D148" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D149" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D150" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D151" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D152" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D153" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D154" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D155" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D156" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D157" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D158" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E158" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D159" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E159" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D160" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E160" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D161" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E161" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D162" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D163" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E163" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D164" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E164" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D165" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E165" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D166" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E166" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D167" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D168" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D169" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D170" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D171" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D172" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D173" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D174" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D175" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D176" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D178" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D179" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D180" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D181" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D182" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E182" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D183" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D184" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D185" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D186" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D187" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D188" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D189" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D190" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D191" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D192" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D193" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D194" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D195" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D196" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D197" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E197" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D198" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D199" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E199" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D200" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E200" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D201" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E201" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D203" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E203" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D204" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E204" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D205" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D206" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E206" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D207" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D208" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E208" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D209" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D210" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D211" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E211" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D212" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E212" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D213" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E213" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D214" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D215" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E215" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D216" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E216" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D217" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E217" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D218" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D219" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E219" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D220" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E220" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D221" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E221" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D222" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E222" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D223" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D224" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E224" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D225" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E225" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D226" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E226" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D227" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E227" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D228" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E228" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D229" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E229" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D230" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E230" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D231" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E231" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D232" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E232" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D233" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E233" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D234" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E234" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D235" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E235" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D236" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E236" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D237" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E237" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D238" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E238" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D239" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E239" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D240" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E240" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F240" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D241" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="E241" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F241" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G121">
     <filterColumn colId="3">
@@ -3358,7 +6347,7 @@
   </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/mosip_master/xlsx/location.xlsx
+++ b/mosip_master/xlsx/location.xlsx
@@ -355,7 +355,7 @@
     <t xml:space="preserve">kan</t>
   </si>
   <si>
-    <t xml:space="preserve"> ನನ್ನ ದೇಶ</t>
+    <t xml:space="preserve">ನನ್ನ ದೇಶ</t>
   </si>
   <si>
     <t xml:space="preserve">ದೇಶ</t>
@@ -385,7 +385,7 @@
     <t xml:space="preserve">ಕೋಡ್</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಮ್ನಸ್ರ</t>
+    <t xml:space="preserve">ಮ್ನಸ್ರ</t>
   </si>
   <si>
     <t xml:space="preserve">ಮೈಗ್ರೇನ್</t>
@@ -394,19 +394,19 @@
     <t xml:space="preserve">ಅಸ್ಸಾಂ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಮೆಹದಿಯಾ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ಎಣ್ಣೆಯ ಔಜಿ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ಸಿಡಿ ತೈಬಿ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ಸಿಡಿ ಅಲ್ಲಲ್ ತಾಜಿ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ರಬತ್</t>
+    <t xml:space="preserve">ಮೆಹದಿಯಾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಎಣ್ಣೆಯ ಔಜಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಸಿಡಿ ತೈಬಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಸಿಡಿ ಅಲ್ಲಲ್ ತಾಜಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ರಬತ್</t>
   </si>
   <si>
     <t xml:space="preserve">ಅಗ್ಡಾಲ್</t>
@@ -421,7 +421,7 @@
     <t xml:space="preserve">ಮದೀನತ್ ಅಲ್ ಇರ್ಫಾನೆ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಹೇ ರಿಯಾದ್</t>
+    <t xml:space="preserve">ಹೇ ರಿಯಾದ್</t>
   </si>
   <si>
     <t xml:space="preserve">ಮದೀನಾ ಡಿ ರಬತ್</t>
@@ -436,19 +436,19 @@
     <t xml:space="preserve">hin</t>
   </si>
   <si>
-    <t xml:space="preserve"> मेरा देश</t>
+    <t xml:space="preserve">मेरा देश</t>
   </si>
   <si>
     <t xml:space="preserve"> देश</t>
   </si>
   <si>
-    <t xml:space="preserve"> रबात बिक्री केनित्र</t>
+    <t xml:space="preserve">रबात बिक्री केनित्र</t>
   </si>
   <si>
     <t xml:space="preserve"> क्षेत्र</t>
   </si>
   <si>
-    <t xml:space="preserve"> केनिट्रा</t>
+    <t xml:space="preserve">केनिट्रा</t>
   </si>
   <si>
     <t xml:space="preserve">प्रांत</t>
@@ -457,7 +457,7 @@
     <t xml:space="preserve"> शहर</t>
   </si>
   <si>
-    <t xml:space="preserve"> बेन मंसूर</t>
+    <t xml:space="preserve">बेन मंसूर</t>
   </si>
   <si>
     <t xml:space="preserve">डाक कोड</t>
@@ -469,13 +469,13 @@
     <t xml:space="preserve">क्षेत्र</t>
   </si>
   <si>
-    <t xml:space="preserve"> माइग्रेन</t>
+    <t xml:space="preserve">माइग्रेन</t>
   </si>
   <si>
     <t xml:space="preserve">असम</t>
   </si>
   <si>
-    <t xml:space="preserve"> मेहदिया</t>
+    <t xml:space="preserve">मेहदिया</t>
   </si>
   <si>
     <t xml:space="preserve">तेल से सना हुआ औजिक</t>
@@ -499,13 +499,13 @@
     <t xml:space="preserve">क्वार्टियर हसन</t>
   </si>
   <si>
-    <t xml:space="preserve"> सौइसी</t>
+    <t xml:space="preserve">सौइसी</t>
   </si>
   <si>
     <t xml:space="preserve">मदीनत अल इरफान</t>
   </si>
   <si>
-    <t xml:space="preserve"> हे रियादो</t>
+    <t xml:space="preserve">हे रियादो</t>
   </si>
   <si>
     <t xml:space="preserve">मदीना दे रबातो</t>
@@ -797,8 +797,8 @@
   </sheetPr>
   <dimension ref="A1:G241"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A223" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C237" activeCellId="0" sqref="C237"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C122" activeCellId="0" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/mosip_master/xlsx/location.xlsx
+++ b/mosip_master/xlsx/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\CIV\CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77FECE3-B78E-44B9-B8FD-29C525E147D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F4733B-B53D-4E05-823A-AD6C08FDF0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="943">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="942">
   <si>
     <t>lang_code</t>
   </si>
@@ -832,9 +832,6 @@
   </si>
   <si>
     <t>Bianouan</t>
-  </si>
-  <si>
-    <t>SOUS-PREFECTURE</t>
   </si>
   <si>
     <t>MAFE</t>
@@ -3436,8 +3433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A528" workbookViewId="0">
-      <selection activeCell="E537" sqref="E537"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3483,13 +3480,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D2" s="10">
         <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="12" t="s">
@@ -4386,7 +4383,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F41" s="22" t="s">
         <v>48</v>
@@ -4409,7 +4406,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F42" s="22" t="s">
         <v>48</v>
@@ -4433,7 +4430,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F43" s="22" t="s">
         <v>48</v>
@@ -4456,7 +4453,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F44" s="22" t="s">
         <v>48</v>
@@ -4479,7 +4476,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F45" s="22" t="s">
         <v>48</v>
@@ -4502,7 +4499,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F46" s="22" t="s">
         <v>48</v>
@@ -4525,7 +4522,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F47" s="22" t="s">
         <v>51</v>
@@ -4548,7 +4545,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F48" s="22" t="s">
         <v>51</v>
@@ -4571,7 +4568,7 @@
         <v>3</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F49" s="22" t="s">
         <v>51</v>
@@ -4594,7 +4591,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F50" s="22" t="s">
         <v>53</v>
@@ -4617,7 +4614,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F51" s="22" t="s">
         <v>53</v>
@@ -4640,7 +4637,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F52" s="22" t="s">
         <v>53</v>
@@ -4663,7 +4660,7 @@
         <v>3</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F53" s="22" t="s">
         <v>55</v>
@@ -4686,7 +4683,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F54" s="22" t="s">
         <v>55</v>
@@ -4709,7 +4706,7 @@
         <v>3</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F55" s="22" t="s">
         <v>55</v>
@@ -4732,7 +4729,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F56" s="22" t="s">
         <v>57</v>
@@ -4755,7 +4752,7 @@
         <v>3</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F57" s="22" t="s">
         <v>57</v>
@@ -4778,7 +4775,7 @@
         <v>3</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F58" s="22" t="s">
         <v>59</v>
@@ -4801,7 +4798,7 @@
         <v>3</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F59" s="22" t="s">
         <v>59</v>
@@ -4824,7 +4821,7 @@
         <v>3</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F60" s="22" t="s">
         <v>61</v>
@@ -4847,7 +4844,7 @@
         <v>3</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F61" s="22" t="s">
         <v>61</v>
@@ -4870,7 +4867,7 @@
         <v>3</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F62" s="22" t="s">
         <v>61</v>
@@ -4893,7 +4890,7 @@
         <v>3</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F63" s="22" t="s">
         <v>61</v>
@@ -4916,7 +4913,7 @@
         <v>3</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F64" s="22" t="s">
         <v>61</v>
@@ -4939,7 +4936,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F65" s="22" t="s">
         <v>63</v>
@@ -4962,7 +4959,7 @@
         <v>3</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F66" s="22" t="s">
         <v>63</v>
@@ -4985,7 +4982,7 @@
         <v>3</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F67" s="22" t="s">
         <v>63</v>
@@ -5008,7 +5005,7 @@
         <v>3</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F68" s="22" t="s">
         <v>63</v>
@@ -5031,7 +5028,7 @@
         <v>3</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F69" s="22" t="s">
         <v>64</v>
@@ -5054,7 +5051,7 @@
         <v>3</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F70" s="22" t="s">
         <v>64</v>
@@ -5077,7 +5074,7 @@
         <v>3</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F71" s="22" t="s">
         <v>65</v>
@@ -5100,7 +5097,7 @@
         <v>3</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F72" s="22" t="s">
         <v>65</v>
@@ -5123,7 +5120,7 @@
         <v>3</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F73" s="22" t="s">
         <v>67</v>
@@ -5146,7 +5143,7 @@
         <v>3</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F74" s="22" t="s">
         <v>67</v>
@@ -5169,7 +5166,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F75" s="22" t="s">
         <v>67</v>
@@ -5192,7 +5189,7 @@
         <v>3</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F76" s="22" t="s">
         <v>69</v>
@@ -5215,7 +5212,7 @@
         <v>3</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F77" s="22" t="s">
         <v>69</v>
@@ -5238,7 +5235,7 @@
         <v>3</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F78" s="22" t="s">
         <v>69</v>
@@ -5261,7 +5258,7 @@
         <v>3</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F79" s="22" t="s">
         <v>71</v>
@@ -5284,7 +5281,7 @@
         <v>3</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F80" s="22" t="s">
         <v>71</v>
@@ -5307,7 +5304,7 @@
         <v>3</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F81" s="22" t="s">
         <v>71</v>
@@ -5330,7 +5327,7 @@
         <v>3</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F82" s="22" t="s">
         <v>73</v>
@@ -5353,7 +5350,7 @@
         <v>3</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F83" s="22" t="s">
         <v>75</v>
@@ -5373,10 +5370,10 @@
         <v>157</v>
       </c>
       <c r="D84" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F84" s="22" t="s">
         <v>75</v>
@@ -5399,7 +5396,7 @@
         <v>3</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F85" s="22" t="s">
         <v>75</v>
@@ -5422,7 +5419,7 @@
         <v>3</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F86" s="22" t="s">
         <v>75</v>
@@ -5445,7 +5442,7 @@
         <v>3</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F87" s="22" t="s">
         <v>77</v>
@@ -5468,7 +5465,7 @@
         <v>3</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F88" s="22" t="s">
         <v>77</v>
@@ -5491,7 +5488,7 @@
         <v>3</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F89" s="22" t="s">
         <v>77</v>
@@ -5514,7 +5511,7 @@
         <v>3</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F90" s="22" t="s">
         <v>77</v>
@@ -5537,7 +5534,7 @@
         <v>3</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F91" s="22" t="s">
         <v>77</v>
@@ -5560,7 +5557,7 @@
         <v>3</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F92" s="22" t="s">
         <v>79</v>
@@ -5583,7 +5580,7 @@
         <v>3</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F93" s="22" t="s">
         <v>79</v>
@@ -5606,7 +5603,7 @@
         <v>3</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F94" s="22" t="s">
         <v>79</v>
@@ -5629,7 +5626,7 @@
         <v>3</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F95" s="22" t="s">
         <v>81</v>
@@ -5652,7 +5649,7 @@
         <v>3</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F96" s="22" t="s">
         <v>81</v>
@@ -5675,7 +5672,7 @@
         <v>3</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F97" s="22" t="s">
         <v>83</v>
@@ -6571,8 +6568,8 @@
       <c r="D136" s="25">
         <v>4</v>
       </c>
-      <c r="E136" s="15" t="s">
-        <v>259</v>
+      <c r="E136" s="20" t="s">
+        <v>182</v>
       </c>
       <c r="F136" s="25" t="s">
         <v>102</v>
@@ -6586,10 +6583,10 @@
         <v>7</v>
       </c>
       <c r="B137" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C137" s="15" t="s">
         <v>260</v>
-      </c>
-      <c r="C137" s="15" t="s">
-        <v>261</v>
       </c>
       <c r="D137" s="14">
         <v>4</v>
@@ -6609,10 +6606,10 @@
         <v>7</v>
       </c>
       <c r="B138" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="C138" s="15" t="s">
         <v>262</v>
-      </c>
-      <c r="C138" s="15" t="s">
-        <v>263</v>
       </c>
       <c r="D138" s="14">
         <v>4</v>
@@ -6632,10 +6629,10 @@
         <v>7</v>
       </c>
       <c r="B139" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="C139" s="15" t="s">
         <v>264</v>
-      </c>
-      <c r="C139" s="15" t="s">
-        <v>265</v>
       </c>
       <c r="D139" s="14">
         <v>4</v>
@@ -6655,16 +6652,16 @@
         <v>7</v>
       </c>
       <c r="B140" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C140" s="15" t="s">
         <v>266</v>
       </c>
-      <c r="C140" s="15" t="s">
-        <v>267</v>
-      </c>
       <c r="D140" s="25">
         <v>4</v>
       </c>
-      <c r="E140" s="15" t="s">
-        <v>259</v>
+      <c r="E140" s="20" t="s">
+        <v>182</v>
       </c>
       <c r="F140" s="25" t="s">
         <v>103</v>
@@ -6678,10 +6675,10 @@
         <v>7</v>
       </c>
       <c r="B141" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C141" s="15" t="s">
         <v>268</v>
-      </c>
-      <c r="C141" s="15" t="s">
-        <v>269</v>
       </c>
       <c r="D141" s="14">
         <v>4</v>
@@ -6701,10 +6698,10 @@
         <v>7</v>
       </c>
       <c r="B142" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="C142" s="15" t="s">
         <v>270</v>
-      </c>
-      <c r="C142" s="15" t="s">
-        <v>271</v>
       </c>
       <c r="D142" s="14">
         <v>4</v>
@@ -6724,10 +6721,10 @@
         <v>7</v>
       </c>
       <c r="B143" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="C143" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="C143" s="15" t="s">
-        <v>273</v>
       </c>
       <c r="D143" s="14">
         <v>4</v>
@@ -6747,10 +6744,10 @@
         <v>7</v>
       </c>
       <c r="B144" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C144" s="15" t="s">
         <v>274</v>
-      </c>
-      <c r="C144" s="15" t="s">
-        <v>275</v>
       </c>
       <c r="D144" s="14">
         <v>4</v>
@@ -6770,10 +6767,10 @@
         <v>7</v>
       </c>
       <c r="B145" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="C145" s="15" t="s">
         <v>276</v>
-      </c>
-      <c r="C145" s="15" t="s">
-        <v>277</v>
       </c>
       <c r="D145" s="14">
         <v>4</v>
@@ -6793,10 +6790,10 @@
         <v>7</v>
       </c>
       <c r="B146" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C146" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="C146" s="15" t="s">
-        <v>279</v>
       </c>
       <c r="D146" s="14">
         <v>4</v>
@@ -6816,10 +6813,10 @@
         <v>7</v>
       </c>
       <c r="B147" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C147" s="15" t="s">
         <v>280</v>
-      </c>
-      <c r="C147" s="15" t="s">
-        <v>281</v>
       </c>
       <c r="D147" s="14">
         <v>4</v>
@@ -6839,10 +6836,10 @@
         <v>7</v>
       </c>
       <c r="B148" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="C148" s="15" t="s">
         <v>282</v>
-      </c>
-      <c r="C148" s="15" t="s">
-        <v>283</v>
       </c>
       <c r="D148" s="14">
         <v>4</v>
@@ -6862,10 +6859,10 @@
         <v>7</v>
       </c>
       <c r="B149" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C149" s="15" t="s">
         <v>284</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>285</v>
       </c>
       <c r="D149" s="14">
         <v>4</v>
@@ -6888,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D150" s="24">
         <v>4</v>
@@ -6908,10 +6905,10 @@
         <v>7</v>
       </c>
       <c r="B151" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C151" s="15" t="s">
         <v>287</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>288</v>
       </c>
       <c r="D151" s="24">
         <v>4</v>
@@ -6931,10 +6928,10 @@
         <v>7</v>
       </c>
       <c r="B152" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C152" s="15" t="s">
         <v>289</v>
-      </c>
-      <c r="C152" s="15" t="s">
-        <v>290</v>
       </c>
       <c r="D152" s="14">
         <v>4</v>
@@ -6954,10 +6951,10 @@
         <v>7</v>
       </c>
       <c r="B153" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C153" s="15" t="s">
         <v>291</v>
-      </c>
-      <c r="C153" s="15" t="s">
-        <v>292</v>
       </c>
       <c r="D153" s="14">
         <v>4</v>
@@ -6977,10 +6974,10 @@
         <v>7</v>
       </c>
       <c r="B154" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C154" s="15" t="s">
         <v>293</v>
-      </c>
-      <c r="C154" s="15" t="s">
-        <v>294</v>
       </c>
       <c r="D154" s="24">
         <v>4</v>
@@ -7000,10 +6997,10 @@
         <v>7</v>
       </c>
       <c r="B155" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C155" s="15" t="s">
         <v>295</v>
-      </c>
-      <c r="C155" s="15" t="s">
-        <v>296</v>
       </c>
       <c r="D155" s="24">
         <v>4</v>
@@ -7023,10 +7020,10 @@
         <v>7</v>
       </c>
       <c r="B156" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="C156" s="15" t="s">
         <v>297</v>
-      </c>
-      <c r="C156" s="15" t="s">
-        <v>298</v>
       </c>
       <c r="D156" s="14">
         <v>4</v>
@@ -7046,10 +7043,10 @@
         <v>7</v>
       </c>
       <c r="B157" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="C157" s="15" t="s">
         <v>299</v>
-      </c>
-      <c r="C157" s="15" t="s">
-        <v>300</v>
       </c>
       <c r="D157" s="14">
         <v>4</v>
@@ -7069,10 +7066,10 @@
         <v>7</v>
       </c>
       <c r="B158" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="C158" s="15" t="s">
         <v>301</v>
-      </c>
-      <c r="C158" s="15" t="s">
-        <v>302</v>
       </c>
       <c r="D158" s="14">
         <v>4</v>
@@ -7092,10 +7089,10 @@
         <v>7</v>
       </c>
       <c r="B159" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C159" s="15" t="s">
         <v>303</v>
-      </c>
-      <c r="C159" s="15" t="s">
-        <v>304</v>
       </c>
       <c r="D159" s="24">
         <v>4</v>
@@ -7115,10 +7112,10 @@
         <v>7</v>
       </c>
       <c r="B160" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C160" s="15" t="s">
         <v>305</v>
-      </c>
-      <c r="C160" s="15" t="s">
-        <v>306</v>
       </c>
       <c r="D160" s="24">
         <v>4</v>
@@ -7138,10 +7135,10 @@
         <v>7</v>
       </c>
       <c r="B161" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C161" s="15" t="s">
         <v>307</v>
-      </c>
-      <c r="C161" s="15" t="s">
-        <v>308</v>
       </c>
       <c r="D161" s="24">
         <v>4</v>
@@ -7161,10 +7158,10 @@
         <v>7</v>
       </c>
       <c r="B162" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C162" s="15" t="s">
         <v>309</v>
-      </c>
-      <c r="C162" s="15" t="s">
-        <v>310</v>
       </c>
       <c r="D162" s="14">
         <v>4</v>
@@ -7184,10 +7181,10 @@
         <v>7</v>
       </c>
       <c r="B163" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C163" s="15" t="s">
         <v>311</v>
-      </c>
-      <c r="C163" s="15" t="s">
-        <v>312</v>
       </c>
       <c r="D163" s="14">
         <v>4</v>
@@ -7207,10 +7204,10 @@
         <v>7</v>
       </c>
       <c r="B164" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="C164" s="15" t="s">
         <v>313</v>
-      </c>
-      <c r="C164" s="15" t="s">
-        <v>314</v>
       </c>
       <c r="D164" s="14">
         <v>4</v>
@@ -7230,10 +7227,10 @@
         <v>7</v>
       </c>
       <c r="B165" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="C165" s="15" t="s">
         <v>315</v>
-      </c>
-      <c r="C165" s="15" t="s">
-        <v>316</v>
       </c>
       <c r="D165" s="14">
         <v>4</v>
@@ -7253,10 +7250,10 @@
         <v>7</v>
       </c>
       <c r="B166" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C166" s="15" t="s">
         <v>317</v>
-      </c>
-      <c r="C166" s="15" t="s">
-        <v>318</v>
       </c>
       <c r="D166" s="24">
         <v>4</v>
@@ -7276,10 +7273,10 @@
         <v>7</v>
       </c>
       <c r="B167" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C167" s="15" t="s">
         <v>319</v>
-      </c>
-      <c r="C167" s="15" t="s">
-        <v>320</v>
       </c>
       <c r="D167" s="14">
         <v>4</v>
@@ -7299,10 +7296,10 @@
         <v>7</v>
       </c>
       <c r="B168" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="C168" s="15" t="s">
         <v>321</v>
-      </c>
-      <c r="C168" s="15" t="s">
-        <v>322</v>
       </c>
       <c r="D168" s="24">
         <v>4</v>
@@ -7322,10 +7319,10 @@
         <v>7</v>
       </c>
       <c r="B169" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C169" s="15" t="s">
         <v>323</v>
-      </c>
-      <c r="C169" s="15" t="s">
-        <v>324</v>
       </c>
       <c r="D169" s="14">
         <v>4</v>
@@ -7345,10 +7342,10 @@
         <v>7</v>
       </c>
       <c r="B170" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="C170" s="15" t="s">
         <v>325</v>
-      </c>
-      <c r="C170" s="15" t="s">
-        <v>326</v>
       </c>
       <c r="D170" s="14">
         <v>4</v>
@@ -7368,10 +7365,10 @@
         <v>7</v>
       </c>
       <c r="B171" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C171" s="15" t="s">
         <v>327</v>
-      </c>
-      <c r="C171" s="15" t="s">
-        <v>328</v>
       </c>
       <c r="D171" s="14">
         <v>4</v>
@@ -7391,10 +7388,10 @@
         <v>7</v>
       </c>
       <c r="B172" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C172" s="15" t="s">
         <v>329</v>
-      </c>
-      <c r="C172" s="15" t="s">
-        <v>330</v>
       </c>
       <c r="D172" s="14">
         <v>4</v>
@@ -7414,10 +7411,10 @@
         <v>7</v>
       </c>
       <c r="B173" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="C173" s="15" t="s">
         <v>331</v>
-      </c>
-      <c r="C173" s="15" t="s">
-        <v>332</v>
       </c>
       <c r="D173" s="14">
         <v>4</v>
@@ -7437,10 +7434,10 @@
         <v>7</v>
       </c>
       <c r="B174" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="C174" s="15" t="s">
         <v>333</v>
-      </c>
-      <c r="C174" s="15" t="s">
-        <v>334</v>
       </c>
       <c r="D174" s="14">
         <v>4</v>
@@ -7460,10 +7457,10 @@
         <v>7</v>
       </c>
       <c r="B175" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="C175" s="15" t="s">
         <v>335</v>
-      </c>
-      <c r="C175" s="15" t="s">
-        <v>336</v>
       </c>
       <c r="D175" s="14">
         <v>4</v>
@@ -7483,10 +7480,10 @@
         <v>7</v>
       </c>
       <c r="B176" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="C176" s="15" t="s">
         <v>337</v>
-      </c>
-      <c r="C176" s="15" t="s">
-        <v>338</v>
       </c>
       <c r="D176" s="14">
         <v>4</v>
@@ -7506,10 +7503,10 @@
         <v>7</v>
       </c>
       <c r="B177" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C177" s="15" t="s">
         <v>339</v>
-      </c>
-      <c r="C177" s="15" t="s">
-        <v>340</v>
       </c>
       <c r="D177" s="14">
         <v>4</v>
@@ -7529,10 +7526,10 @@
         <v>7</v>
       </c>
       <c r="B178" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="C178" s="15" t="s">
         <v>341</v>
-      </c>
-      <c r="C178" s="15" t="s">
-        <v>342</v>
       </c>
       <c r="D178" s="14">
         <v>4</v>
@@ -7552,10 +7549,10 @@
         <v>7</v>
       </c>
       <c r="B179" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="C179" s="15" t="s">
         <v>343</v>
-      </c>
-      <c r="C179" s="15" t="s">
-        <v>344</v>
       </c>
       <c r="D179" s="14">
         <v>4</v>
@@ -7575,10 +7572,10 @@
         <v>7</v>
       </c>
       <c r="B180" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="C180" s="15" t="s">
         <v>345</v>
-      </c>
-      <c r="C180" s="15" t="s">
-        <v>346</v>
       </c>
       <c r="D180" s="14">
         <v>4</v>
@@ -7598,10 +7595,10 @@
         <v>7</v>
       </c>
       <c r="B181" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C181" s="15" t="s">
         <v>347</v>
-      </c>
-      <c r="C181" s="15" t="s">
-        <v>348</v>
       </c>
       <c r="D181" s="14">
         <v>4</v>
@@ -7621,10 +7618,10 @@
         <v>7</v>
       </c>
       <c r="B182" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="C182" s="15" t="s">
         <v>349</v>
-      </c>
-      <c r="C182" s="15" t="s">
-        <v>350</v>
       </c>
       <c r="D182" s="24">
         <v>4</v>
@@ -7644,10 +7641,10 @@
         <v>7</v>
       </c>
       <c r="B183" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="C183" s="15" t="s">
         <v>351</v>
-      </c>
-      <c r="C183" s="15" t="s">
-        <v>352</v>
       </c>
       <c r="D183" s="24">
         <v>4</v>
@@ -7667,10 +7664,10 @@
         <v>7</v>
       </c>
       <c r="B184" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C184" s="15" t="s">
         <v>353</v>
-      </c>
-      <c r="C184" s="15" t="s">
-        <v>354</v>
       </c>
       <c r="D184" s="14">
         <v>4</v>
@@ -7690,10 +7687,10 @@
         <v>7</v>
       </c>
       <c r="B185" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="C185" s="15" t="s">
         <v>355</v>
-      </c>
-      <c r="C185" s="15" t="s">
-        <v>356</v>
       </c>
       <c r="D185" s="14">
         <v>4</v>
@@ -7713,10 +7710,10 @@
         <v>7</v>
       </c>
       <c r="B186" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C186" s="15" t="s">
         <v>357</v>
-      </c>
-      <c r="C186" s="15" t="s">
-        <v>358</v>
       </c>
       <c r="D186" s="14">
         <v>4</v>
@@ -7736,10 +7733,10 @@
         <v>7</v>
       </c>
       <c r="B187" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="C187" s="15" t="s">
         <v>359</v>
-      </c>
-      <c r="C187" s="15" t="s">
-        <v>360</v>
       </c>
       <c r="D187" s="14">
         <v>4</v>
@@ -7759,10 +7756,10 @@
         <v>7</v>
       </c>
       <c r="B188" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="C188" s="15" t="s">
         <v>361</v>
-      </c>
-      <c r="C188" s="15" t="s">
-        <v>362</v>
       </c>
       <c r="D188" s="14">
         <v>4</v>
@@ -7782,10 +7779,10 @@
         <v>7</v>
       </c>
       <c r="B189" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="C189" s="15" t="s">
         <v>363</v>
-      </c>
-      <c r="C189" s="15" t="s">
-        <v>364</v>
       </c>
       <c r="D189" s="14">
         <v>4</v>
@@ -7805,10 +7802,10 @@
         <v>7</v>
       </c>
       <c r="B190" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="C190" s="15" t="s">
         <v>365</v>
-      </c>
-      <c r="C190" s="15" t="s">
-        <v>366</v>
       </c>
       <c r="D190" s="14">
         <v>4</v>
@@ -7828,10 +7825,10 @@
         <v>7</v>
       </c>
       <c r="B191" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="C191" s="15" t="s">
         <v>367</v>
-      </c>
-      <c r="C191" s="15" t="s">
-        <v>368</v>
       </c>
       <c r="D191" s="14">
         <v>4</v>
@@ -7851,10 +7848,10 @@
         <v>7</v>
       </c>
       <c r="B192" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="C192" s="15" t="s">
         <v>369</v>
-      </c>
-      <c r="C192" s="15" t="s">
-        <v>370</v>
       </c>
       <c r="D192" s="14">
         <v>4</v>
@@ -7874,10 +7871,10 @@
         <v>7</v>
       </c>
       <c r="B193" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="C193" s="15" t="s">
         <v>371</v>
-      </c>
-      <c r="C193" s="15" t="s">
-        <v>372</v>
       </c>
       <c r="D193" s="14">
         <v>4</v>
@@ -7897,10 +7894,10 @@
         <v>7</v>
       </c>
       <c r="B194" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="C194" s="15" t="s">
         <v>373</v>
-      </c>
-      <c r="C194" s="15" t="s">
-        <v>374</v>
       </c>
       <c r="D194" s="14">
         <v>4</v>
@@ -7920,16 +7917,16 @@
         <v>7</v>
       </c>
       <c r="B195" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="C195" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="C195" s="15" t="s">
-        <v>376</v>
-      </c>
       <c r="D195" s="24">
         <v>4</v>
       </c>
-      <c r="E195" s="15" t="s">
-        <v>259</v>
+      <c r="E195" s="20" t="s">
+        <v>182</v>
       </c>
       <c r="F195" s="24" t="s">
         <v>123</v>
@@ -7943,10 +7940,10 @@
         <v>7</v>
       </c>
       <c r="B196" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C196" s="15" t="s">
         <v>377</v>
-      </c>
-      <c r="C196" s="15" t="s">
-        <v>378</v>
       </c>
       <c r="D196" s="14">
         <v>4</v>
@@ -7966,10 +7963,10 @@
         <v>7</v>
       </c>
       <c r="B197" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="C197" s="15" t="s">
         <v>379</v>
-      </c>
-      <c r="C197" s="15" t="s">
-        <v>380</v>
       </c>
       <c r="D197" s="24">
         <v>4</v>
@@ -7989,10 +7986,10 @@
         <v>7</v>
       </c>
       <c r="B198" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="C198" s="15" t="s">
         <v>381</v>
-      </c>
-      <c r="C198" s="15" t="s">
-        <v>382</v>
       </c>
       <c r="D198" s="14">
         <v>4</v>
@@ -8012,10 +8009,10 @@
         <v>7</v>
       </c>
       <c r="B199" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="C199" s="15" t="s">
         <v>383</v>
-      </c>
-      <c r="C199" s="15" t="s">
-        <v>384</v>
       </c>
       <c r="D199" s="14">
         <v>4</v>
@@ -8035,10 +8032,10 @@
         <v>7</v>
       </c>
       <c r="B200" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="C200" s="15" t="s">
         <v>385</v>
-      </c>
-      <c r="C200" s="15" t="s">
-        <v>386</v>
       </c>
       <c r="D200" s="14">
         <v>4</v>
@@ -8058,10 +8055,10 @@
         <v>7</v>
       </c>
       <c r="B201" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="C201" s="15" t="s">
         <v>387</v>
-      </c>
-      <c r="C201" s="15" t="s">
-        <v>388</v>
       </c>
       <c r="D201" s="14">
         <v>4</v>
@@ -8081,10 +8078,10 @@
         <v>7</v>
       </c>
       <c r="B202" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="C202" s="15" t="s">
         <v>389</v>
-      </c>
-      <c r="C202" s="15" t="s">
-        <v>390</v>
       </c>
       <c r="D202" s="14">
         <v>4</v>
@@ -8104,10 +8101,10 @@
         <v>7</v>
       </c>
       <c r="B203" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="C203" s="15" t="s">
         <v>391</v>
-      </c>
-      <c r="C203" s="15" t="s">
-        <v>392</v>
       </c>
       <c r="D203" s="14">
         <v>4</v>
@@ -8127,10 +8124,10 @@
         <v>7</v>
       </c>
       <c r="B204" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C204" s="15" t="s">
         <v>393</v>
-      </c>
-      <c r="C204" s="15" t="s">
-        <v>394</v>
       </c>
       <c r="D204" s="14">
         <v>4</v>
@@ -8150,10 +8147,10 @@
         <v>7</v>
       </c>
       <c r="B205" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="C205" s="15" t="s">
         <v>395</v>
-      </c>
-      <c r="C205" s="15" t="s">
-        <v>396</v>
       </c>
       <c r="D205" s="14">
         <v>4</v>
@@ -8173,10 +8170,10 @@
         <v>7</v>
       </c>
       <c r="B206" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="C206" s="15" t="s">
         <v>397</v>
-      </c>
-      <c r="C206" s="15" t="s">
-        <v>398</v>
       </c>
       <c r="D206" s="14">
         <v>4</v>
@@ -8196,10 +8193,10 @@
         <v>7</v>
       </c>
       <c r="B207" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="C207" s="15" t="s">
         <v>399</v>
-      </c>
-      <c r="C207" s="15" t="s">
-        <v>400</v>
       </c>
       <c r="D207" s="14">
         <v>4</v>
@@ -8219,10 +8216,10 @@
         <v>7</v>
       </c>
       <c r="B208" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C208" s="15" t="s">
         <v>401</v>
-      </c>
-      <c r="C208" s="15" t="s">
-        <v>402</v>
       </c>
       <c r="D208" s="14">
         <v>4</v>
@@ -8242,10 +8239,10 @@
         <v>7</v>
       </c>
       <c r="B209" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C209" s="15" t="s">
         <v>403</v>
-      </c>
-      <c r="C209" s="15" t="s">
-        <v>404</v>
       </c>
       <c r="D209" s="14">
         <v>4</v>
@@ -8265,10 +8262,10 @@
         <v>7</v>
       </c>
       <c r="B210" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C210" s="15" t="s">
         <v>405</v>
-      </c>
-      <c r="C210" s="15" t="s">
-        <v>406</v>
       </c>
       <c r="D210" s="14">
         <v>4</v>
@@ -8288,10 +8285,10 @@
         <v>7</v>
       </c>
       <c r="B211" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="C211" s="15" t="s">
         <v>407</v>
-      </c>
-      <c r="C211" s="15" t="s">
-        <v>408</v>
       </c>
       <c r="D211" s="14">
         <v>4</v>
@@ -8311,10 +8308,10 @@
         <v>7</v>
       </c>
       <c r="B212" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="C212" s="15" t="s">
         <v>409</v>
-      </c>
-      <c r="C212" s="15" t="s">
-        <v>410</v>
       </c>
       <c r="D212" s="14">
         <v>4</v>
@@ -8334,10 +8331,10 @@
         <v>7</v>
       </c>
       <c r="B213" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C213" s="15" t="s">
         <v>411</v>
-      </c>
-      <c r="C213" s="15" t="s">
-        <v>412</v>
       </c>
       <c r="D213" s="14">
         <v>4</v>
@@ -8357,10 +8354,10 @@
         <v>7</v>
       </c>
       <c r="B214" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="C214" s="15" t="s">
         <v>413</v>
-      </c>
-      <c r="C214" s="15" t="s">
-        <v>414</v>
       </c>
       <c r="D214" s="14">
         <v>4</v>
@@ -8380,10 +8377,10 @@
         <v>7</v>
       </c>
       <c r="B215" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="C215" s="15" t="s">
         <v>415</v>
-      </c>
-      <c r="C215" s="15" t="s">
-        <v>416</v>
       </c>
       <c r="D215" s="14">
         <v>4</v>
@@ -8403,10 +8400,10 @@
         <v>7</v>
       </c>
       <c r="B216" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="C216" s="15" t="s">
         <v>417</v>
-      </c>
-      <c r="C216" s="15" t="s">
-        <v>418</v>
       </c>
       <c r="D216" s="14">
         <v>4</v>
@@ -8426,7 +8423,7 @@
         <v>7</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C217" s="15" t="s">
         <v>64</v>
@@ -8449,10 +8446,10 @@
         <v>7</v>
       </c>
       <c r="B218" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="C218" s="15" t="s">
         <v>420</v>
-      </c>
-      <c r="C218" s="15" t="s">
-        <v>421</v>
       </c>
       <c r="D218" s="14">
         <v>4</v>
@@ -8472,10 +8469,10 @@
         <v>7</v>
       </c>
       <c r="B219" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="C219" s="15" t="s">
         <v>422</v>
-      </c>
-      <c r="C219" s="15" t="s">
-        <v>423</v>
       </c>
       <c r="D219" s="14">
         <v>4</v>
@@ -8495,10 +8492,10 @@
         <v>7</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C220" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D220" s="14">
         <v>4</v>
@@ -8518,10 +8515,10 @@
         <v>7</v>
       </c>
       <c r="B221" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="C221" s="15" t="s">
         <v>425</v>
-      </c>
-      <c r="C221" s="15" t="s">
-        <v>426</v>
       </c>
       <c r="D221" s="14">
         <v>4</v>
@@ -8541,7 +8538,7 @@
         <v>7</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C222" s="15" t="s">
         <v>136</v>
@@ -8564,10 +8561,10 @@
         <v>7</v>
       </c>
       <c r="B223" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="C223" s="15" t="s">
         <v>428</v>
-      </c>
-      <c r="C223" s="15" t="s">
-        <v>429</v>
       </c>
       <c r="D223" s="14">
         <v>4</v>
@@ -8587,10 +8584,10 @@
         <v>7</v>
       </c>
       <c r="B224" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="C224" s="15" t="s">
         <v>430</v>
-      </c>
-      <c r="C224" s="15" t="s">
-        <v>431</v>
       </c>
       <c r="D224" s="14">
         <v>4</v>
@@ -8610,10 +8607,10 @@
         <v>7</v>
       </c>
       <c r="B225" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="C225" s="15" t="s">
         <v>432</v>
-      </c>
-      <c r="C225" s="15" t="s">
-        <v>433</v>
       </c>
       <c r="D225" s="14">
         <v>4</v>
@@ -8633,7 +8630,7 @@
         <v>7</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C226" s="15" t="s">
         <v>66</v>
@@ -8656,10 +8653,10 @@
         <v>7</v>
       </c>
       <c r="B227" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="C227" s="15" t="s">
         <v>435</v>
-      </c>
-      <c r="C227" s="15" t="s">
-        <v>436</v>
       </c>
       <c r="D227" s="14">
         <v>4</v>
@@ -8679,10 +8676,10 @@
         <v>7</v>
       </c>
       <c r="B228" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="C228" s="15" t="s">
         <v>437</v>
-      </c>
-      <c r="C228" s="15" t="s">
-        <v>438</v>
       </c>
       <c r="D228" s="14">
         <v>4</v>
@@ -8702,10 +8699,10 @@
         <v>7</v>
       </c>
       <c r="B229" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="C229" s="15" t="s">
         <v>439</v>
-      </c>
-      <c r="C229" s="15" t="s">
-        <v>440</v>
       </c>
       <c r="D229" s="14">
         <v>4</v>
@@ -8725,10 +8722,10 @@
         <v>7</v>
       </c>
       <c r="B230" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="C230" s="15" t="s">
         <v>441</v>
-      </c>
-      <c r="C230" s="15" t="s">
-        <v>442</v>
       </c>
       <c r="D230" s="14">
         <v>4</v>
@@ -8748,10 +8745,10 @@
         <v>7</v>
       </c>
       <c r="B231" s="15" t="s">
+        <v>442</v>
+      </c>
+      <c r="C231" s="15" t="s">
         <v>443</v>
-      </c>
-      <c r="C231" s="15" t="s">
-        <v>444</v>
       </c>
       <c r="D231" s="14">
         <v>4</v>
@@ -8771,10 +8768,10 @@
         <v>7</v>
       </c>
       <c r="B232" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="C232" s="15" t="s">
         <v>445</v>
-      </c>
-      <c r="C232" s="15" t="s">
-        <v>446</v>
       </c>
       <c r="D232" s="14">
         <v>4</v>
@@ -8794,10 +8791,10 @@
         <v>7</v>
       </c>
       <c r="B233" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="C233" s="15" t="s">
         <v>447</v>
-      </c>
-      <c r="C233" s="15" t="s">
-        <v>448</v>
       </c>
       <c r="D233" s="14">
         <v>4</v>
@@ -8817,10 +8814,10 @@
         <v>7</v>
       </c>
       <c r="B234" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="C234" s="15" t="s">
         <v>449</v>
-      </c>
-      <c r="C234" s="15" t="s">
-        <v>450</v>
       </c>
       <c r="D234" s="14">
         <v>4</v>
@@ -8840,10 +8837,10 @@
         <v>7</v>
       </c>
       <c r="B235" s="15" t="s">
+        <v>450</v>
+      </c>
+      <c r="C235" s="15" t="s">
         <v>451</v>
-      </c>
-      <c r="C235" s="15" t="s">
-        <v>452</v>
       </c>
       <c r="D235" s="14">
         <v>4</v>
@@ -8863,10 +8860,10 @@
         <v>7</v>
       </c>
       <c r="B236" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="C236" s="15" t="s">
         <v>453</v>
-      </c>
-      <c r="C236" s="15" t="s">
-        <v>454</v>
       </c>
       <c r="D236" s="14">
         <v>4</v>
@@ -8886,10 +8883,10 @@
         <v>7</v>
       </c>
       <c r="B237" s="15" t="s">
+        <v>454</v>
+      </c>
+      <c r="C237" s="15" t="s">
         <v>455</v>
-      </c>
-      <c r="C237" s="15" t="s">
-        <v>456</v>
       </c>
       <c r="D237" s="14">
         <v>4</v>
@@ -8909,10 +8906,10 @@
         <v>7</v>
       </c>
       <c r="B238" s="15" t="s">
+        <v>456</v>
+      </c>
+      <c r="C238" s="15" t="s">
         <v>457</v>
-      </c>
-      <c r="C238" s="15" t="s">
-        <v>458</v>
       </c>
       <c r="D238" s="14">
         <v>4</v>
@@ -8932,10 +8929,10 @@
         <v>7</v>
       </c>
       <c r="B239" s="15" t="s">
+        <v>458</v>
+      </c>
+      <c r="C239" s="15" t="s">
         <v>459</v>
-      </c>
-      <c r="C239" s="15" t="s">
-        <v>460</v>
       </c>
       <c r="D239" s="14">
         <v>4</v>
@@ -8955,10 +8952,10 @@
         <v>7</v>
       </c>
       <c r="B240" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="C240" s="15" t="s">
         <v>461</v>
-      </c>
-      <c r="C240" s="15" t="s">
-        <v>462</v>
       </c>
       <c r="D240" s="14">
         <v>4</v>
@@ -8978,10 +8975,10 @@
         <v>7</v>
       </c>
       <c r="B241" s="15" t="s">
+        <v>462</v>
+      </c>
+      <c r="C241" s="15" t="s">
         <v>463</v>
-      </c>
-      <c r="C241" s="15" t="s">
-        <v>464</v>
       </c>
       <c r="D241" s="14">
         <v>4</v>
@@ -9001,7 +8998,7 @@
         <v>7</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C242" s="15" t="s">
         <v>145</v>
@@ -9024,10 +9021,10 @@
         <v>7</v>
       </c>
       <c r="B243" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="C243" s="15" t="s">
         <v>466</v>
-      </c>
-      <c r="C243" s="15" t="s">
-        <v>467</v>
       </c>
       <c r="D243" s="14">
         <v>4</v>
@@ -9047,10 +9044,10 @@
         <v>7</v>
       </c>
       <c r="B244" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="C244" s="15" t="s">
         <v>468</v>
-      </c>
-      <c r="C244" s="15" t="s">
-        <v>469</v>
       </c>
       <c r="D244" s="14">
         <v>4</v>
@@ -9070,10 +9067,10 @@
         <v>7</v>
       </c>
       <c r="B245" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="C245" s="15" t="s">
         <v>470</v>
-      </c>
-      <c r="C245" s="15" t="s">
-        <v>471</v>
       </c>
       <c r="D245" s="14">
         <v>4</v>
@@ -9093,10 +9090,10 @@
         <v>7</v>
       </c>
       <c r="B246" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="C246" s="15" t="s">
         <v>472</v>
-      </c>
-      <c r="C246" s="15" t="s">
-        <v>473</v>
       </c>
       <c r="D246" s="14">
         <v>4</v>
@@ -9116,10 +9113,10 @@
         <v>7</v>
       </c>
       <c r="B247" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C247" s="15" t="s">
         <v>474</v>
-      </c>
-      <c r="C247" s="15" t="s">
-        <v>475</v>
       </c>
       <c r="D247" s="14">
         <v>4</v>
@@ -9139,7 +9136,7 @@
         <v>7</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C248" s="15" t="s">
         <v>70</v>
@@ -9162,10 +9159,10 @@
         <v>7</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C249" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D249" s="14">
         <v>4</v>
@@ -9185,7 +9182,7 @@
         <v>7</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C250" s="15" t="s">
         <v>148</v>
@@ -9208,10 +9205,10 @@
         <v>7</v>
       </c>
       <c r="B251" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="C251" s="15" t="s">
         <v>479</v>
-      </c>
-      <c r="C251" s="15" t="s">
-        <v>480</v>
       </c>
       <c r="D251" s="14">
         <v>4</v>
@@ -9231,10 +9228,10 @@
         <v>7</v>
       </c>
       <c r="B252" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="C252" s="15" t="s">
         <v>481</v>
-      </c>
-      <c r="C252" s="15" t="s">
-        <v>482</v>
       </c>
       <c r="D252" s="14">
         <v>4</v>
@@ -9254,10 +9251,10 @@
         <v>7</v>
       </c>
       <c r="B253" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="C253" s="15" t="s">
         <v>483</v>
-      </c>
-      <c r="C253" s="15" t="s">
-        <v>484</v>
       </c>
       <c r="D253" s="14">
         <v>4</v>
@@ -9277,10 +9274,10 @@
         <v>7</v>
       </c>
       <c r="B254" s="14" t="s">
+        <v>484</v>
+      </c>
+      <c r="C254" s="15" t="s">
         <v>485</v>
-      </c>
-      <c r="C254" s="15" t="s">
-        <v>486</v>
       </c>
       <c r="D254" s="14">
         <v>4</v>
@@ -9300,10 +9297,10 @@
         <v>7</v>
       </c>
       <c r="B255" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="C255" s="15" t="s">
         <v>487</v>
-      </c>
-      <c r="C255" s="15" t="s">
-        <v>488</v>
       </c>
       <c r="D255" s="14">
         <v>4</v>
@@ -9323,10 +9320,10 @@
         <v>7</v>
       </c>
       <c r="B256" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="C256" s="15" t="s">
         <v>489</v>
-      </c>
-      <c r="C256" s="15" t="s">
-        <v>490</v>
       </c>
       <c r="D256" s="14">
         <v>4</v>
@@ -9346,10 +9343,10 @@
         <v>7</v>
       </c>
       <c r="B257" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="C257" s="15" t="s">
         <v>491</v>
-      </c>
-      <c r="C257" s="15" t="s">
-        <v>492</v>
       </c>
       <c r="D257" s="14">
         <v>4</v>
@@ -9369,10 +9366,10 @@
         <v>7</v>
       </c>
       <c r="B258" s="15" t="s">
+        <v>492</v>
+      </c>
+      <c r="C258" s="15" t="s">
         <v>493</v>
-      </c>
-      <c r="C258" s="15" t="s">
-        <v>494</v>
       </c>
       <c r="D258" s="14">
         <v>4</v>
@@ -9392,10 +9389,10 @@
         <v>7</v>
       </c>
       <c r="B259" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="C259" s="15" t="s">
         <v>495</v>
-      </c>
-      <c r="C259" s="15" t="s">
-        <v>496</v>
       </c>
       <c r="D259" s="14">
         <v>4</v>
@@ -9415,10 +9412,10 @@
         <v>7</v>
       </c>
       <c r="B260" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="C260" s="15" t="s">
         <v>497</v>
-      </c>
-      <c r="C260" s="15" t="s">
-        <v>498</v>
       </c>
       <c r="D260" s="14">
         <v>4</v>
@@ -9438,16 +9435,16 @@
         <v>7</v>
       </c>
       <c r="B261" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="C261" s="15" t="s">
         <v>499</v>
       </c>
-      <c r="C261" s="15" t="s">
-        <v>500</v>
-      </c>
       <c r="D261" s="14">
         <v>4</v>
       </c>
-      <c r="E261" s="15" t="s">
-        <v>501</v>
+      <c r="E261" s="20" t="s">
+        <v>182</v>
       </c>
       <c r="F261" s="14" t="s">
         <v>150</v>
@@ -9461,10 +9458,10 @@
         <v>7</v>
       </c>
       <c r="B262" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C262" s="15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D262" s="14">
         <v>4</v>
@@ -9484,10 +9481,10 @@
         <v>7</v>
       </c>
       <c r="B263" s="14" t="s">
+        <v>502</v>
+      </c>
+      <c r="C263" s="15" t="s">
         <v>503</v>
-      </c>
-      <c r="C263" s="15" t="s">
-        <v>504</v>
       </c>
       <c r="D263" s="14">
         <v>4</v>
@@ -9507,10 +9504,10 @@
         <v>7</v>
       </c>
       <c r="B264" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="C264" s="15" t="s">
         <v>505</v>
-      </c>
-      <c r="C264" s="15" t="s">
-        <v>506</v>
       </c>
       <c r="D264" s="14">
         <v>4</v>
@@ -9530,10 +9527,10 @@
         <v>7</v>
       </c>
       <c r="B265" s="14" t="s">
+        <v>506</v>
+      </c>
+      <c r="C265" s="15" t="s">
         <v>507</v>
-      </c>
-      <c r="C265" s="15" t="s">
-        <v>508</v>
       </c>
       <c r="D265" s="14">
         <v>4</v>
@@ -9553,10 +9550,10 @@
         <v>7</v>
       </c>
       <c r="B266" s="14" t="s">
+        <v>508</v>
+      </c>
+      <c r="C266" s="15" t="s">
         <v>509</v>
-      </c>
-      <c r="C266" s="15" t="s">
-        <v>510</v>
       </c>
       <c r="D266" s="14">
         <v>4</v>
@@ -9576,10 +9573,10 @@
         <v>7</v>
       </c>
       <c r="B267" s="14" t="s">
+        <v>510</v>
+      </c>
+      <c r="C267" s="15" t="s">
         <v>511</v>
-      </c>
-      <c r="C267" s="15" t="s">
-        <v>512</v>
       </c>
       <c r="D267" s="14">
         <v>4</v>
@@ -9599,10 +9596,10 @@
         <v>7</v>
       </c>
       <c r="B268" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="C268" s="15" t="s">
         <v>513</v>
-      </c>
-      <c r="C268" s="15" t="s">
-        <v>514</v>
       </c>
       <c r="D268" s="14">
         <v>4</v>
@@ -9622,10 +9619,10 @@
         <v>7</v>
       </c>
       <c r="B269" s="15" t="s">
+        <v>514</v>
+      </c>
+      <c r="C269" s="15" t="s">
         <v>515</v>
-      </c>
-      <c r="C269" s="15" t="s">
-        <v>516</v>
       </c>
       <c r="D269" s="14">
         <v>4</v>
@@ -9645,10 +9642,10 @@
         <v>7</v>
       </c>
       <c r="B270" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="C270" s="15" t="s">
         <v>517</v>
-      </c>
-      <c r="C270" s="15" t="s">
-        <v>518</v>
       </c>
       <c r="D270" s="14">
         <v>4</v>
@@ -9668,10 +9665,10 @@
         <v>7</v>
       </c>
       <c r="B271" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="C271" s="15" t="s">
         <v>519</v>
-      </c>
-      <c r="C271" s="15" t="s">
-        <v>520</v>
       </c>
       <c r="D271" s="14">
         <v>4</v>
@@ -9691,10 +9688,10 @@
         <v>7</v>
       </c>
       <c r="B272" s="15" t="s">
+        <v>520</v>
+      </c>
+      <c r="C272" s="15" t="s">
         <v>521</v>
-      </c>
-      <c r="C272" s="15" t="s">
-        <v>522</v>
       </c>
       <c r="D272" s="14">
         <v>4</v>
@@ -9714,10 +9711,10 @@
         <v>7</v>
       </c>
       <c r="B273" s="15" t="s">
+        <v>522</v>
+      </c>
+      <c r="C273" s="15" t="s">
         <v>523</v>
-      </c>
-      <c r="C273" s="15" t="s">
-        <v>524</v>
       </c>
       <c r="D273" s="14">
         <v>4</v>
@@ -9737,10 +9734,10 @@
         <v>7</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C274" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D274" s="14">
         <v>4</v>
@@ -9760,10 +9757,10 @@
         <v>7</v>
       </c>
       <c r="B275" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="C275" s="15" t="s">
         <v>526</v>
-      </c>
-      <c r="C275" s="15" t="s">
-        <v>527</v>
       </c>
       <c r="D275" s="14">
         <v>4</v>
@@ -9783,7 +9780,7 @@
         <v>7</v>
       </c>
       <c r="B276" s="15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C276" s="15" t="s">
         <v>74</v>
@@ -9806,10 +9803,10 @@
         <v>7</v>
       </c>
       <c r="B277" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="C277" s="15" t="s">
         <v>529</v>
-      </c>
-      <c r="C277" s="15" t="s">
-        <v>530</v>
       </c>
       <c r="D277" s="14">
         <v>4</v>
@@ -9829,10 +9826,10 @@
         <v>7</v>
       </c>
       <c r="B278" s="15" t="s">
+        <v>530</v>
+      </c>
+      <c r="C278" s="15" t="s">
         <v>531</v>
-      </c>
-      <c r="C278" s="15" t="s">
-        <v>532</v>
       </c>
       <c r="D278" s="14">
         <v>4</v>
@@ -9852,7 +9849,7 @@
         <v>7</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C279" s="15" t="s">
         <v>76</v>
@@ -9875,10 +9872,10 @@
         <v>7</v>
       </c>
       <c r="B280" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="C280" s="15" t="s">
         <v>534</v>
-      </c>
-      <c r="C280" s="15" t="s">
-        <v>535</v>
       </c>
       <c r="D280" s="14">
         <v>4</v>
@@ -9898,7 +9895,7 @@
         <v>7</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C281" s="15" t="s">
         <v>157</v>
@@ -9921,10 +9918,10 @@
         <v>7</v>
       </c>
       <c r="B282" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="C282" s="15" t="s">
         <v>537</v>
-      </c>
-      <c r="C282" s="15" t="s">
-        <v>538</v>
       </c>
       <c r="D282" s="14">
         <v>4</v>
@@ -9944,10 +9941,10 @@
         <v>7</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C283" s="15" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D283" s="14">
         <v>4</v>
@@ -9967,10 +9964,10 @@
         <v>7</v>
       </c>
       <c r="B284" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="C284" s="15" t="s">
         <v>540</v>
-      </c>
-      <c r="C284" s="15" t="s">
-        <v>541</v>
       </c>
       <c r="D284" s="14">
         <v>4</v>
@@ -9990,10 +9987,10 @@
         <v>7</v>
       </c>
       <c r="B285" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="C285" s="15" t="s">
         <v>542</v>
-      </c>
-      <c r="C285" s="15" t="s">
-        <v>543</v>
       </c>
       <c r="D285" s="14">
         <v>4</v>
@@ -10013,10 +10010,10 @@
         <v>7</v>
       </c>
       <c r="B286" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="C286" s="15" t="s">
         <v>544</v>
-      </c>
-      <c r="C286" s="15" t="s">
-        <v>545</v>
       </c>
       <c r="D286" s="14">
         <v>4</v>
@@ -10036,7 +10033,7 @@
         <v>7</v>
       </c>
       <c r="B287" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C287" s="15" t="s">
         <v>159</v>
@@ -10059,19 +10056,19 @@
         <v>7</v>
       </c>
       <c r="B288" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="C288" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="C288" s="15" t="s">
+      <c r="D288" s="14">
+        <v>4</v>
+      </c>
+      <c r="E288" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="F288" s="14" t="s">
         <v>548</v>
-      </c>
-      <c r="D288" s="14">
-        <v>4</v>
-      </c>
-      <c r="E288" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="F288" s="14" t="s">
-        <v>549</v>
       </c>
       <c r="G288" s="15" t="s">
         <v>12</v>
@@ -10082,7 +10079,7 @@
         <v>7</v>
       </c>
       <c r="B289" s="15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C289" s="15" t="s">
         <v>161</v>
@@ -10094,7 +10091,7 @@
         <v>182</v>
       </c>
       <c r="F289" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G289" s="15" t="s">
         <v>12</v>
@@ -10105,10 +10102,10 @@
         <v>7</v>
       </c>
       <c r="B290" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="C290" s="15" t="s">
         <v>551</v>
-      </c>
-      <c r="C290" s="15" t="s">
-        <v>552</v>
       </c>
       <c r="D290" s="14">
         <v>4</v>
@@ -10128,10 +10125,10 @@
         <v>7</v>
       </c>
       <c r="B291" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="C291" s="15" t="s">
         <v>553</v>
-      </c>
-      <c r="C291" s="15" t="s">
-        <v>554</v>
       </c>
       <c r="D291" s="14">
         <v>4</v>
@@ -10151,10 +10148,10 @@
         <v>7</v>
       </c>
       <c r="B292" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="C292" s="15" t="s">
         <v>555</v>
-      </c>
-      <c r="C292" s="15" t="s">
-        <v>556</v>
       </c>
       <c r="D292" s="14">
         <v>4</v>
@@ -10174,10 +10171,10 @@
         <v>7</v>
       </c>
       <c r="B293" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="C293" s="15" t="s">
         <v>557</v>
-      </c>
-      <c r="C293" s="15" t="s">
-        <v>558</v>
       </c>
       <c r="D293" s="14">
         <v>4</v>
@@ -10197,10 +10194,10 @@
         <v>7</v>
       </c>
       <c r="B294" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="C294" s="15" t="s">
         <v>559</v>
-      </c>
-      <c r="C294" s="15" t="s">
-        <v>560</v>
       </c>
       <c r="D294" s="14">
         <v>4</v>
@@ -10220,10 +10217,10 @@
         <v>7</v>
       </c>
       <c r="B295" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="C295" s="15" t="s">
         <v>561</v>
-      </c>
-      <c r="C295" s="15" t="s">
-        <v>562</v>
       </c>
       <c r="D295" s="14">
         <v>4</v>
@@ -10243,10 +10240,10 @@
         <v>7</v>
       </c>
       <c r="B296" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="C296" s="15" t="s">
         <v>563</v>
-      </c>
-      <c r="C296" s="15" t="s">
-        <v>564</v>
       </c>
       <c r="D296" s="14">
         <v>4</v>
@@ -10266,10 +10263,10 @@
         <v>7</v>
       </c>
       <c r="B297" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="C297" s="15" t="s">
         <v>565</v>
-      </c>
-      <c r="C297" s="15" t="s">
-        <v>566</v>
       </c>
       <c r="D297" s="14">
         <v>4</v>
@@ -10289,10 +10286,10 @@
         <v>7</v>
       </c>
       <c r="B298" s="15" t="s">
+        <v>566</v>
+      </c>
+      <c r="C298" s="15" t="s">
         <v>567</v>
-      </c>
-      <c r="C298" s="15" t="s">
-        <v>568</v>
       </c>
       <c r="D298" s="14">
         <v>4</v>
@@ -10312,10 +10309,10 @@
         <v>7</v>
       </c>
       <c r="B299" s="15" t="s">
+        <v>568</v>
+      </c>
+      <c r="C299" s="15" t="s">
         <v>569</v>
-      </c>
-      <c r="C299" s="15" t="s">
-        <v>570</v>
       </c>
       <c r="D299" s="14">
         <v>4</v>
@@ -10335,10 +10332,10 @@
         <v>7</v>
       </c>
       <c r="B300" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="C300" s="15" t="s">
         <v>571</v>
-      </c>
-      <c r="C300" s="15" t="s">
-        <v>572</v>
       </c>
       <c r="D300" s="14">
         <v>4</v>
@@ -10358,10 +10355,10 @@
         <v>7</v>
       </c>
       <c r="B301" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="C301" s="15" t="s">
         <v>573</v>
-      </c>
-      <c r="C301" s="15" t="s">
-        <v>574</v>
       </c>
       <c r="D301" s="14">
         <v>4</v>
@@ -10381,10 +10378,10 @@
         <v>7</v>
       </c>
       <c r="B302" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="C302" s="15" t="s">
         <v>575</v>
-      </c>
-      <c r="C302" s="15" t="s">
-        <v>576</v>
       </c>
       <c r="D302" s="14">
         <v>4</v>
@@ -10404,10 +10401,10 @@
         <v>7</v>
       </c>
       <c r="B303" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="C303" s="15" t="s">
         <v>577</v>
-      </c>
-      <c r="C303" s="15" t="s">
-        <v>578</v>
       </c>
       <c r="D303" s="14">
         <v>4</v>
@@ -10427,10 +10424,10 @@
         <v>7</v>
       </c>
       <c r="B304" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="C304" s="15" t="s">
         <v>579</v>
-      </c>
-      <c r="C304" s="15" t="s">
-        <v>580</v>
       </c>
       <c r="D304" s="14">
         <v>4</v>
@@ -10450,10 +10447,10 @@
         <v>7</v>
       </c>
       <c r="B305" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="C305" s="15" t="s">
         <v>581</v>
-      </c>
-      <c r="C305" s="15" t="s">
-        <v>582</v>
       </c>
       <c r="D305" s="14">
         <v>4</v>
@@ -10473,10 +10470,10 @@
         <v>7</v>
       </c>
       <c r="B306" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="C306" s="15" t="s">
         <v>583</v>
-      </c>
-      <c r="C306" s="15" t="s">
-        <v>584</v>
       </c>
       <c r="D306" s="14">
         <v>4</v>
@@ -10496,10 +10493,10 @@
         <v>7</v>
       </c>
       <c r="B307" s="15" t="s">
+        <v>584</v>
+      </c>
+      <c r="C307" s="15" t="s">
         <v>585</v>
-      </c>
-      <c r="C307" s="15" t="s">
-        <v>586</v>
       </c>
       <c r="D307" s="14">
         <v>4</v>
@@ -10519,10 +10516,10 @@
         <v>7</v>
       </c>
       <c r="B308" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="C308" s="15" t="s">
         <v>587</v>
-      </c>
-      <c r="C308" s="15" t="s">
-        <v>588</v>
       </c>
       <c r="D308" s="14">
         <v>4</v>
@@ -10542,10 +10539,10 @@
         <v>7</v>
       </c>
       <c r="B309" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="C309" s="15" t="s">
         <v>589</v>
-      </c>
-      <c r="C309" s="15" t="s">
-        <v>590</v>
       </c>
       <c r="D309" s="14">
         <v>4</v>
@@ -10565,10 +10562,10 @@
         <v>7</v>
       </c>
       <c r="B310" s="15" t="s">
+        <v>590</v>
+      </c>
+      <c r="C310" s="15" t="s">
         <v>591</v>
-      </c>
-      <c r="C310" s="15" t="s">
-        <v>592</v>
       </c>
       <c r="D310" s="14">
         <v>4</v>
@@ -10588,10 +10585,10 @@
         <v>7</v>
       </c>
       <c r="B311" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="C311" s="15" t="s">
         <v>593</v>
-      </c>
-      <c r="C311" s="15" t="s">
-        <v>594</v>
       </c>
       <c r="D311" s="14">
         <v>4</v>
@@ -10611,10 +10608,10 @@
         <v>7</v>
       </c>
       <c r="B312" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="C312" s="15" t="s">
         <v>595</v>
-      </c>
-      <c r="C312" s="15" t="s">
-        <v>596</v>
       </c>
       <c r="D312" s="14">
         <v>4</v>
@@ -10634,10 +10631,10 @@
         <v>7</v>
       </c>
       <c r="B313" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="C313" s="15" t="s">
         <v>597</v>
-      </c>
-      <c r="C313" s="15" t="s">
-        <v>598</v>
       </c>
       <c r="D313" s="14">
         <v>4</v>
@@ -10657,10 +10654,10 @@
         <v>7</v>
       </c>
       <c r="B314" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="C314" s="15" t="s">
         <v>599</v>
-      </c>
-      <c r="C314" s="15" t="s">
-        <v>600</v>
       </c>
       <c r="D314" s="14">
         <v>4</v>
@@ -10680,10 +10677,10 @@
         <v>7</v>
       </c>
       <c r="B315" s="15" t="s">
+        <v>600</v>
+      </c>
+      <c r="C315" s="15" t="s">
         <v>601</v>
-      </c>
-      <c r="C315" s="15" t="s">
-        <v>602</v>
       </c>
       <c r="D315" s="14">
         <v>4</v>
@@ -10703,10 +10700,10 @@
         <v>7</v>
       </c>
       <c r="B316" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="C316" s="15" t="s">
         <v>603</v>
-      </c>
-      <c r="C316" s="15" t="s">
-        <v>604</v>
       </c>
       <c r="D316" s="14">
         <v>4</v>
@@ -10726,10 +10723,10 @@
         <v>7</v>
       </c>
       <c r="B317" s="15" t="s">
+        <v>604</v>
+      </c>
+      <c r="C317" s="15" t="s">
         <v>605</v>
-      </c>
-      <c r="C317" s="15" t="s">
-        <v>606</v>
       </c>
       <c r="D317" s="14">
         <v>4</v>
@@ -10749,10 +10746,10 @@
         <v>7</v>
       </c>
       <c r="B318" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="C318" s="15" t="s">
         <v>607</v>
-      </c>
-      <c r="C318" s="15" t="s">
-        <v>608</v>
       </c>
       <c r="D318" s="14">
         <v>4</v>
@@ -10772,10 +10769,10 @@
         <v>7</v>
       </c>
       <c r="B319" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="C319" s="15" t="s">
         <v>609</v>
-      </c>
-      <c r="C319" s="15" t="s">
-        <v>610</v>
       </c>
       <c r="D319" s="14">
         <v>4</v>
@@ -10795,10 +10792,10 @@
         <v>7</v>
       </c>
       <c r="B320" s="15" t="s">
+        <v>610</v>
+      </c>
+      <c r="C320" s="15" t="s">
         <v>611</v>
-      </c>
-      <c r="C320" s="15" t="s">
-        <v>612</v>
       </c>
       <c r="D320" s="14">
         <v>4</v>
@@ -10818,10 +10815,10 @@
         <v>7</v>
       </c>
       <c r="B321" s="15" t="s">
+        <v>612</v>
+      </c>
+      <c r="C321" s="15" t="s">
         <v>613</v>
-      </c>
-      <c r="C321" s="15" t="s">
-        <v>614</v>
       </c>
       <c r="D321" s="14">
         <v>4</v>
@@ -10841,10 +10838,10 @@
         <v>7</v>
       </c>
       <c r="B322" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="C322" s="15" t="s">
         <v>615</v>
-      </c>
-      <c r="C322" s="15" t="s">
-        <v>616</v>
       </c>
       <c r="D322" s="14">
         <v>4</v>
@@ -10864,10 +10861,10 @@
         <v>7</v>
       </c>
       <c r="B323" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="C323" s="15" t="s">
         <v>617</v>
-      </c>
-      <c r="C323" s="15" t="s">
-        <v>618</v>
       </c>
       <c r="D323" s="14">
         <v>4</v>
@@ -10887,10 +10884,10 @@
         <v>7</v>
       </c>
       <c r="B324" s="15" t="s">
+        <v>618</v>
+      </c>
+      <c r="C324" s="15" t="s">
         <v>619</v>
-      </c>
-      <c r="C324" s="15" t="s">
-        <v>620</v>
       </c>
       <c r="D324" s="14">
         <v>4</v>
@@ -10910,10 +10907,10 @@
         <v>7</v>
       </c>
       <c r="B325" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="C325" s="15" t="s">
         <v>621</v>
-      </c>
-      <c r="C325" s="15" t="s">
-        <v>622</v>
       </c>
       <c r="D325" s="14">
         <v>4</v>
@@ -10933,10 +10930,10 @@
         <v>7</v>
       </c>
       <c r="B326" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="C326" s="15" t="s">
         <v>623</v>
-      </c>
-      <c r="C326" s="15" t="s">
-        <v>624</v>
       </c>
       <c r="D326" s="14">
         <v>4</v>
@@ -10956,10 +10953,10 @@
         <v>7</v>
       </c>
       <c r="B327" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="C327" s="15" t="s">
         <v>625</v>
-      </c>
-      <c r="C327" s="15" t="s">
-        <v>626</v>
       </c>
       <c r="D327" s="14">
         <v>4</v>
@@ -10979,10 +10976,10 @@
         <v>7</v>
       </c>
       <c r="B328" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="C328" s="15" t="s">
         <v>627</v>
-      </c>
-      <c r="C328" s="15" t="s">
-        <v>628</v>
       </c>
       <c r="D328" s="14">
         <v>4</v>
@@ -11002,10 +10999,10 @@
         <v>7</v>
       </c>
       <c r="B329" s="15" t="s">
+        <v>628</v>
+      </c>
+      <c r="C329" s="15" t="s">
         <v>629</v>
-      </c>
-      <c r="C329" s="15" t="s">
-        <v>630</v>
       </c>
       <c r="D329" s="14">
         <v>4</v>
@@ -11025,10 +11022,10 @@
         <v>7</v>
       </c>
       <c r="B330" s="15" t="s">
+        <v>630</v>
+      </c>
+      <c r="C330" s="15" t="s">
         <v>631</v>
-      </c>
-      <c r="C330" s="15" t="s">
-        <v>632</v>
       </c>
       <c r="D330" s="14">
         <v>4</v>
@@ -11048,10 +11045,10 @@
         <v>7</v>
       </c>
       <c r="B331" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="C331" s="15" t="s">
         <v>633</v>
-      </c>
-      <c r="C331" s="15" t="s">
-        <v>634</v>
       </c>
       <c r="D331" s="14">
         <v>4</v>
@@ -11071,10 +11068,10 @@
         <v>7</v>
       </c>
       <c r="B332" s="15" t="s">
+        <v>634</v>
+      </c>
+      <c r="C332" s="15" t="s">
         <v>635</v>
-      </c>
-      <c r="C332" s="15" t="s">
-        <v>636</v>
       </c>
       <c r="D332" s="14">
         <v>4</v>
@@ -11094,10 +11091,10 @@
         <v>7</v>
       </c>
       <c r="B333" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="C333" s="15" t="s">
         <v>637</v>
-      </c>
-      <c r="C333" s="15" t="s">
-        <v>638</v>
       </c>
       <c r="D333" s="14">
         <v>4</v>
@@ -11117,10 +11114,10 @@
         <v>7</v>
       </c>
       <c r="B334" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C334" s="15" t="s">
         <v>639</v>
-      </c>
-      <c r="C334" s="15" t="s">
-        <v>640</v>
       </c>
       <c r="D334" s="14">
         <v>4</v>
@@ -11140,10 +11137,10 @@
         <v>7</v>
       </c>
       <c r="B335" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="C335" s="15" t="s">
         <v>641</v>
-      </c>
-      <c r="C335" s="15" t="s">
-        <v>642</v>
       </c>
       <c r="D335" s="14">
         <v>4</v>
@@ -11163,10 +11160,10 @@
         <v>7</v>
       </c>
       <c r="B336" s="15" t="s">
+        <v>642</v>
+      </c>
+      <c r="C336" s="15" t="s">
         <v>643</v>
-      </c>
-      <c r="C336" s="15" t="s">
-        <v>644</v>
       </c>
       <c r="D336" s="14">
         <v>4</v>
@@ -11186,10 +11183,10 @@
         <v>7</v>
       </c>
       <c r="B337" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="C337" s="15" t="s">
         <v>645</v>
-      </c>
-      <c r="C337" s="15" t="s">
-        <v>646</v>
       </c>
       <c r="D337" s="14">
         <v>4</v>
@@ -11209,10 +11206,10 @@
         <v>7</v>
       </c>
       <c r="B338" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="C338" s="15" t="s">
         <v>647</v>
-      </c>
-      <c r="C338" s="15" t="s">
-        <v>648</v>
       </c>
       <c r="D338" s="14">
         <v>4</v>
@@ -11232,10 +11229,10 @@
         <v>7</v>
       </c>
       <c r="B339" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="C339" s="15" t="s">
         <v>649</v>
-      </c>
-      <c r="C339" s="15" t="s">
-        <v>650</v>
       </c>
       <c r="D339" s="14">
         <v>4</v>
@@ -11255,10 +11252,10 @@
         <v>7</v>
       </c>
       <c r="B340" s="15" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C340" s="15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D340" s="14">
         <v>4</v>
@@ -11278,16 +11275,16 @@
         <v>7</v>
       </c>
       <c r="B341" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="C341" s="15" t="s">
         <v>652</v>
       </c>
-      <c r="C341" s="15" t="s">
-        <v>653</v>
-      </c>
       <c r="D341" s="24">
         <v>5</v>
       </c>
       <c r="E341" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F341" s="15" t="s">
         <v>180</v>
@@ -11301,16 +11298,16 @@
         <v>7</v>
       </c>
       <c r="B342" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="C342" s="15" t="s">
         <v>655</v>
       </c>
-      <c r="C342" s="15" t="s">
-        <v>656</v>
-      </c>
       <c r="D342" s="24">
         <v>5</v>
       </c>
       <c r="E342" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F342" s="15" t="s">
         <v>180</v>
@@ -11324,16 +11321,16 @@
         <v>7</v>
       </c>
       <c r="B343" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="C343" s="15" t="s">
         <v>657</v>
       </c>
-      <c r="C343" s="15" t="s">
-        <v>658</v>
-      </c>
       <c r="D343" s="24">
         <v>5</v>
       </c>
       <c r="E343" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F343" s="15" t="s">
         <v>180</v>
@@ -11347,16 +11344,16 @@
         <v>7</v>
       </c>
       <c r="B344" s="15" t="s">
+        <v>658</v>
+      </c>
+      <c r="C344" s="15" t="s">
         <v>659</v>
       </c>
-      <c r="C344" s="15" t="s">
-        <v>660</v>
-      </c>
       <c r="D344" s="24">
         <v>5</v>
       </c>
       <c r="E344" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F344" s="15" t="s">
         <v>180</v>
@@ -11370,16 +11367,16 @@
         <v>7</v>
       </c>
       <c r="B345" s="15" t="s">
+        <v>660</v>
+      </c>
+      <c r="C345" s="15" t="s">
         <v>661</v>
       </c>
-      <c r="C345" s="15" t="s">
-        <v>662</v>
-      </c>
       <c r="D345" s="24">
         <v>5</v>
       </c>
       <c r="E345" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F345" s="15" t="s">
         <v>180</v>
@@ -11393,16 +11390,16 @@
         <v>7</v>
       </c>
       <c r="B346" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="C346" s="15" t="s">
         <v>663</v>
       </c>
-      <c r="C346" s="15" t="s">
-        <v>664</v>
-      </c>
       <c r="D346" s="24">
         <v>5</v>
       </c>
       <c r="E346" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F346" s="15" t="s">
         <v>180</v>
@@ -11416,16 +11413,16 @@
         <v>7</v>
       </c>
       <c r="B347" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="C347" s="15" t="s">
         <v>665</v>
       </c>
-      <c r="C347" s="15" t="s">
-        <v>666</v>
-      </c>
       <c r="D347" s="24">
         <v>5</v>
       </c>
       <c r="E347" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F347" s="15" t="s">
         <v>180</v>
@@ -11439,16 +11436,16 @@
         <v>7</v>
       </c>
       <c r="B348" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="C348" s="15" t="s">
         <v>667</v>
       </c>
-      <c r="C348" s="15" t="s">
-        <v>668</v>
-      </c>
       <c r="D348" s="24">
         <v>5</v>
       </c>
       <c r="E348" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F348" s="15" t="s">
         <v>180</v>
@@ -11462,16 +11459,16 @@
         <v>7</v>
       </c>
       <c r="B349" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="C349" s="15" t="s">
         <v>669</v>
       </c>
-      <c r="C349" s="15" t="s">
-        <v>670</v>
-      </c>
       <c r="D349" s="24">
         <v>5</v>
       </c>
       <c r="E349" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F349" s="15" t="s">
         <v>180</v>
@@ -11485,16 +11482,16 @@
         <v>7</v>
       </c>
       <c r="B350" s="15" t="s">
+        <v>670</v>
+      </c>
+      <c r="C350" s="15" t="s">
         <v>671</v>
       </c>
-      <c r="C350" s="15" t="s">
-        <v>672</v>
-      </c>
       <c r="D350" s="24">
         <v>5</v>
       </c>
       <c r="E350" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F350" s="15" t="s">
         <v>180</v>
@@ -11508,16 +11505,16 @@
         <v>7</v>
       </c>
       <c r="B351" s="15" t="s">
+        <v>672</v>
+      </c>
+      <c r="C351" s="15" t="s">
         <v>673</v>
       </c>
-      <c r="C351" s="15" t="s">
-        <v>674</v>
-      </c>
       <c r="D351" s="24">
         <v>5</v>
       </c>
       <c r="E351" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F351" s="15" t="s">
         <v>183</v>
@@ -11531,16 +11528,16 @@
         <v>7</v>
       </c>
       <c r="B352" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="C352" s="15" t="s">
         <v>675</v>
       </c>
-      <c r="C352" s="15" t="s">
-        <v>676</v>
-      </c>
       <c r="D352" s="24">
         <v>5</v>
       </c>
       <c r="E352" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F352" s="15" t="s">
         <v>185</v>
@@ -11554,16 +11551,16 @@
         <v>7</v>
       </c>
       <c r="B353" s="15" t="s">
+        <v>676</v>
+      </c>
+      <c r="C353" s="15" t="s">
         <v>677</v>
       </c>
-      <c r="C353" s="15" t="s">
-        <v>678</v>
-      </c>
       <c r="D353" s="24">
         <v>5</v>
       </c>
       <c r="E353" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F353" s="15" t="s">
         <v>187</v>
@@ -11577,16 +11574,16 @@
         <v>7</v>
       </c>
       <c r="B354" s="15" t="s">
+        <v>678</v>
+      </c>
+      <c r="C354" s="15" t="s">
         <v>679</v>
       </c>
-      <c r="C354" s="15" t="s">
-        <v>680</v>
-      </c>
       <c r="D354" s="24">
         <v>5</v>
       </c>
       <c r="E354" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F354" s="15" t="s">
         <v>189</v>
@@ -11600,7 +11597,7 @@
         <v>7</v>
       </c>
       <c r="B355" s="15" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C355" s="15" t="s">
         <v>194</v>
@@ -11609,7 +11606,7 @@
         <v>5</v>
       </c>
       <c r="E355" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F355" s="15" t="s">
         <v>193</v>
@@ -11623,7 +11620,7 @@
         <v>7</v>
       </c>
       <c r="B356" s="15" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C356" s="15" t="s">
         <v>196</v>
@@ -11632,7 +11629,7 @@
         <v>5</v>
       </c>
       <c r="E356" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F356" s="15" t="s">
         <v>195</v>
@@ -11646,7 +11643,7 @@
         <v>7</v>
       </c>
       <c r="B357" s="15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C357" s="15" t="s">
         <v>198</v>
@@ -11655,7 +11652,7 @@
         <v>5</v>
       </c>
       <c r="E357" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F357" s="15" t="s">
         <v>197</v>
@@ -11669,7 +11666,7 @@
         <v>7</v>
       </c>
       <c r="B358" s="15" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C358" s="15" t="s">
         <v>200</v>
@@ -11678,7 +11675,7 @@
         <v>5</v>
       </c>
       <c r="E358" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F358" s="15" t="s">
         <v>199</v>
@@ -11692,16 +11689,16 @@
         <v>7</v>
       </c>
       <c r="B359" s="15" t="s">
+        <v>684</v>
+      </c>
+      <c r="C359" s="15" t="s">
         <v>685</v>
       </c>
-      <c r="C359" s="15" t="s">
-        <v>686</v>
-      </c>
       <c r="D359" s="24">
         <v>5</v>
       </c>
       <c r="E359" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F359" s="15" t="s">
         <v>201</v>
@@ -11715,7 +11712,7 @@
         <v>7</v>
       </c>
       <c r="B360" s="15" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C360" s="15" t="s">
         <v>204</v>
@@ -11724,7 +11721,7 @@
         <v>5</v>
       </c>
       <c r="E360" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F360" s="15" t="s">
         <v>203</v>
@@ -11738,7 +11735,7 @@
         <v>7</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C361" s="15" t="s">
         <v>206</v>
@@ -11747,7 +11744,7 @@
         <v>5</v>
       </c>
       <c r="E361" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F361" s="22" t="s">
         <v>205</v>
@@ -11761,7 +11758,7 @@
         <v>7</v>
       </c>
       <c r="B362" s="15" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C362" s="15" t="s">
         <v>208</v>
@@ -11770,7 +11767,7 @@
         <v>5</v>
       </c>
       <c r="E362" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F362" s="22" t="s">
         <v>207</v>
@@ -11784,7 +11781,7 @@
         <v>7</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C363" s="15" t="s">
         <v>210</v>
@@ -11793,7 +11790,7 @@
         <v>5</v>
       </c>
       <c r="E363" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F363" s="22" t="s">
         <v>209</v>
@@ -11807,7 +11804,7 @@
         <v>7</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C364" s="15" t="s">
         <v>212</v>
@@ -11816,7 +11813,7 @@
         <v>5</v>
       </c>
       <c r="E364" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F364" s="22" t="s">
         <v>211</v>
@@ -11830,7 +11827,7 @@
         <v>7</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C365" s="15" t="s">
         <v>214</v>
@@ -11839,7 +11836,7 @@
         <v>5</v>
       </c>
       <c r="E365" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F365" s="22" t="s">
         <v>213</v>
@@ -11853,7 +11850,7 @@
         <v>7</v>
       </c>
       <c r="B366" s="15" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C366" s="15" t="s">
         <v>216</v>
@@ -11862,7 +11859,7 @@
         <v>5</v>
       </c>
       <c r="E366" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F366" s="22" t="s">
         <v>215</v>
@@ -11876,16 +11873,16 @@
         <v>7</v>
       </c>
       <c r="B367" s="15" t="s">
+        <v>693</v>
+      </c>
+      <c r="C367" s="15" t="s">
         <v>694</v>
       </c>
-      <c r="C367" s="15" t="s">
-        <v>695</v>
-      </c>
       <c r="D367" s="25">
         <v>5</v>
       </c>
       <c r="E367" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F367" s="22" t="s">
         <v>217</v>
@@ -11899,7 +11896,7 @@
         <v>7</v>
       </c>
       <c r="B368" s="15" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C368" s="15" t="s">
         <v>220</v>
@@ -11908,7 +11905,7 @@
         <v>5</v>
       </c>
       <c r="E368" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F368" s="22" t="s">
         <v>219</v>
@@ -11922,7 +11919,7 @@
         <v>7</v>
       </c>
       <c r="B369" s="15" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C369" s="15" t="s">
         <v>222</v>
@@ -11931,7 +11928,7 @@
         <v>5</v>
       </c>
       <c r="E369" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F369" s="22" t="s">
         <v>221</v>
@@ -11945,7 +11942,7 @@
         <v>7</v>
       </c>
       <c r="B370" s="15" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C370" s="15" t="s">
         <v>224</v>
@@ -11954,7 +11951,7 @@
         <v>5</v>
       </c>
       <c r="E370" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F370" s="22" t="s">
         <v>223</v>
@@ -11968,7 +11965,7 @@
         <v>7</v>
       </c>
       <c r="B371" s="15" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C371" s="15" t="s">
         <v>226</v>
@@ -11977,7 +11974,7 @@
         <v>5</v>
       </c>
       <c r="E371" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F371" s="22" t="s">
         <v>225</v>
@@ -11991,7 +11988,7 @@
         <v>7</v>
       </c>
       <c r="B372" s="15" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C372" s="15" t="s">
         <v>228</v>
@@ -12000,7 +11997,7 @@
         <v>5</v>
       </c>
       <c r="E372" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F372" s="22" t="s">
         <v>227</v>
@@ -12014,7 +12011,7 @@
         <v>7</v>
       </c>
       <c r="B373" s="15" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C373" s="15" t="s">
         <v>230</v>
@@ -12023,7 +12020,7 @@
         <v>5</v>
       </c>
       <c r="E373" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F373" s="22" t="s">
         <v>229</v>
@@ -12037,16 +12034,16 @@
         <v>7</v>
       </c>
       <c r="B374" s="15" t="s">
+        <v>701</v>
+      </c>
+      <c r="C374" s="15" t="s">
         <v>702</v>
       </c>
-      <c r="C374" s="15" t="s">
-        <v>703</v>
-      </c>
       <c r="D374" s="25">
         <v>5</v>
       </c>
       <c r="E374" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F374" s="22" t="s">
         <v>231</v>
@@ -12060,7 +12057,7 @@
         <v>7</v>
       </c>
       <c r="B375" s="15" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C375" s="15" t="s">
         <v>233</v>
@@ -12069,10 +12066,10 @@
         <v>5</v>
       </c>
       <c r="E375" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F375" s="22" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G375" s="15" t="s">
         <v>12</v>
@@ -12083,7 +12080,7 @@
         <v>7</v>
       </c>
       <c r="B376" s="15" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C376" s="15" t="s">
         <v>236</v>
@@ -12092,7 +12089,7 @@
         <v>5</v>
       </c>
       <c r="E376" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F376" s="22" t="s">
         <v>235</v>
@@ -12106,7 +12103,7 @@
         <v>7</v>
       </c>
       <c r="B377" s="15" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C377" s="15" t="s">
         <v>238</v>
@@ -12115,7 +12112,7 @@
         <v>5</v>
       </c>
       <c r="E377" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F377" s="15" t="s">
         <v>237</v>
@@ -12129,7 +12126,7 @@
         <v>7</v>
       </c>
       <c r="B378" s="15" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C378" s="15" t="s">
         <v>240</v>
@@ -12138,7 +12135,7 @@
         <v>5</v>
       </c>
       <c r="E378" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F378" s="15" t="s">
         <v>239</v>
@@ -12152,7 +12149,7 @@
         <v>7</v>
       </c>
       <c r="B379" s="15" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C379" s="15" t="s">
         <v>242</v>
@@ -12161,7 +12158,7 @@
         <v>5</v>
       </c>
       <c r="E379" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F379" s="15" t="s">
         <v>241</v>
@@ -12175,7 +12172,7 @@
         <v>7</v>
       </c>
       <c r="B380" s="15" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C380" s="15" t="s">
         <v>244</v>
@@ -12184,7 +12181,7 @@
         <v>5</v>
       </c>
       <c r="E380" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F380" s="15" t="s">
         <v>243</v>
@@ -12198,19 +12195,19 @@
         <v>7</v>
       </c>
       <c r="B381" s="15" t="s">
+        <v>710</v>
+      </c>
+      <c r="C381" s="15" t="s">
         <v>711</v>
       </c>
-      <c r="C381" s="15" t="s">
+      <c r="D381" s="15">
+        <v>5</v>
+      </c>
+      <c r="E381" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="F381" s="15" t="s">
         <v>712</v>
-      </c>
-      <c r="D381" s="15">
-        <v>5</v>
-      </c>
-      <c r="E381" s="15" t="s">
-        <v>654</v>
-      </c>
-      <c r="F381" s="15" t="s">
-        <v>713</v>
       </c>
       <c r="G381" s="15" t="s">
         <v>12</v>
@@ -12221,7 +12218,7 @@
         <v>7</v>
       </c>
       <c r="B382" s="15" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C382" s="15" t="s">
         <v>248</v>
@@ -12230,7 +12227,7 @@
         <v>5</v>
       </c>
       <c r="E382" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F382" s="22" t="s">
         <v>247</v>
@@ -12244,7 +12241,7 @@
         <v>7</v>
       </c>
       <c r="B383" s="15" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C383" s="15" t="s">
         <v>250</v>
@@ -12253,7 +12250,7 @@
         <v>5</v>
       </c>
       <c r="E383" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F383" s="22" t="s">
         <v>249</v>
@@ -12267,16 +12264,16 @@
         <v>7</v>
       </c>
       <c r="B384" s="15" t="s">
+        <v>715</v>
+      </c>
+      <c r="C384" s="15" t="s">
         <v>716</v>
       </c>
-      <c r="C384" s="15" t="s">
-        <v>717</v>
-      </c>
       <c r="D384" s="25">
         <v>5</v>
       </c>
       <c r="E384" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F384" s="22" t="s">
         <v>251</v>
@@ -12290,7 +12287,7 @@
         <v>7</v>
       </c>
       <c r="B385" s="15" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C385" s="15" t="s">
         <v>254</v>
@@ -12299,7 +12296,7 @@
         <v>5</v>
       </c>
       <c r="E385" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F385" s="22" t="s">
         <v>253</v>
@@ -12313,7 +12310,7 @@
         <v>7</v>
       </c>
       <c r="B386" s="15" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C386" s="15" t="s">
         <v>256</v>
@@ -12322,7 +12319,7 @@
         <v>5</v>
       </c>
       <c r="E386" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F386" s="22" t="s">
         <v>255</v>
@@ -12336,19 +12333,19 @@
         <v>7</v>
       </c>
       <c r="B387" s="15" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C387" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D387" s="25">
         <v>5</v>
       </c>
       <c r="E387" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F387" s="22" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G387" s="15" t="s">
         <v>12</v>
@@ -12359,19 +12356,19 @@
         <v>7</v>
       </c>
       <c r="B388" s="15" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C388" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D388" s="25">
         <v>5</v>
       </c>
       <c r="E388" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F388" s="22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G388" s="15" t="s">
         <v>12</v>
@@ -12382,19 +12379,19 @@
         <v>7</v>
       </c>
       <c r="B389" s="15" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C389" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D389" s="25">
         <v>5</v>
       </c>
       <c r="E389" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F389" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G389" s="15" t="s">
         <v>12</v>
@@ -12405,19 +12402,19 @@
         <v>7</v>
       </c>
       <c r="B390" s="15" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C390" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D390" s="25">
         <v>5</v>
       </c>
       <c r="E390" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F390" s="22" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G390" s="15" t="s">
         <v>12</v>
@@ -12428,19 +12425,19 @@
         <v>7</v>
       </c>
       <c r="B391" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="C391" s="15" t="s">
         <v>724</v>
       </c>
-      <c r="C391" s="15" t="s">
-        <v>725</v>
-      </c>
       <c r="D391" s="25">
         <v>5</v>
       </c>
       <c r="E391" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F391" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G391" s="15" t="s">
         <v>12</v>
@@ -12451,19 +12448,19 @@
         <v>7</v>
       </c>
       <c r="B392" s="15" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C392" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D392" s="25">
         <v>5</v>
       </c>
       <c r="E392" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F392" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G392" s="15" t="s">
         <v>12</v>
@@ -12474,19 +12471,19 @@
         <v>7</v>
       </c>
       <c r="B393" s="15" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C393" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D393" s="24">
         <v>5</v>
       </c>
       <c r="E393" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F393" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G393" s="15" t="s">
         <v>12</v>
@@ -12497,19 +12494,19 @@
         <v>7</v>
       </c>
       <c r="B394" s="15" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C394" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D394" s="24">
         <v>5</v>
       </c>
       <c r="E394" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F394" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G394" s="15" t="s">
         <v>12</v>
@@ -12520,19 +12517,19 @@
         <v>7</v>
       </c>
       <c r="B395" s="15" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C395" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D395" s="24">
         <v>5</v>
       </c>
       <c r="E395" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F395" s="15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G395" s="15" t="s">
         <v>12</v>
@@ -12543,19 +12540,19 @@
         <v>7</v>
       </c>
       <c r="B396" s="15" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C396" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D396" s="24">
         <v>5</v>
       </c>
       <c r="E396" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F396" s="15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G396" s="15" t="s">
         <v>12</v>
@@ -12566,19 +12563,19 @@
         <v>7</v>
       </c>
       <c r="B397" s="15" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C397" s="15" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D397" s="24">
         <v>5</v>
       </c>
       <c r="E397" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F397" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G397" s="15" t="s">
         <v>12</v>
@@ -12589,19 +12586,19 @@
         <v>7</v>
       </c>
       <c r="B398" s="15" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C398" s="15" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D398" s="24">
         <v>5</v>
       </c>
       <c r="E398" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F398" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G398" s="15" t="s">
         <v>12</v>
@@ -12612,19 +12609,19 @@
         <v>7</v>
       </c>
       <c r="B399" s="15" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C399" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D399" s="24">
         <v>5</v>
       </c>
       <c r="E399" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F399" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G399" s="15" t="s">
         <v>12</v>
@@ -12635,19 +12632,19 @@
         <v>7</v>
       </c>
       <c r="B400" s="15" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C400" s="24" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D400" s="24">
         <v>5</v>
       </c>
       <c r="E400" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F400" s="24" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G400" s="15" t="s">
         <v>12</v>
@@ -12658,19 +12655,19 @@
         <v>7</v>
       </c>
       <c r="B401" s="15" t="s">
+        <v>734</v>
+      </c>
+      <c r="C401" s="15" t="s">
         <v>735</v>
       </c>
-      <c r="C401" s="15" t="s">
-        <v>736</v>
-      </c>
       <c r="D401" s="24">
         <v>5</v>
       </c>
       <c r="E401" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F401" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G401" s="15" t="s">
         <v>12</v>
@@ -12681,19 +12678,19 @@
         <v>7</v>
       </c>
       <c r="B402" s="15" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C402" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D402" s="24">
         <v>5</v>
       </c>
       <c r="E402" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F402" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G402" s="15" t="s">
         <v>12</v>
@@ -12704,19 +12701,19 @@
         <v>7</v>
       </c>
       <c r="B403" s="15" t="s">
+        <v>737</v>
+      </c>
+      <c r="C403" s="15" t="s">
         <v>738</v>
       </c>
-      <c r="C403" s="15" t="s">
-        <v>739</v>
-      </c>
       <c r="D403" s="24">
         <v>5</v>
       </c>
       <c r="E403" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F403" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G403" s="15" t="s">
         <v>12</v>
@@ -12727,19 +12724,19 @@
         <v>7</v>
       </c>
       <c r="B404" s="15" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C404" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D404" s="24">
         <v>5</v>
       </c>
       <c r="E404" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F404" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G404" s="15" t="s">
         <v>12</v>
@@ -12750,19 +12747,19 @@
         <v>7</v>
       </c>
       <c r="B405" s="15" t="s">
+        <v>740</v>
+      </c>
+      <c r="C405" s="15" t="s">
         <v>741</v>
       </c>
-      <c r="C405" s="15" t="s">
-        <v>742</v>
-      </c>
       <c r="D405" s="24">
         <v>5</v>
       </c>
       <c r="E405" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F405" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G405" s="15" t="s">
         <v>12</v>
@@ -12773,19 +12770,19 @@
         <v>7</v>
       </c>
       <c r="B406" s="15" t="s">
+        <v>742</v>
+      </c>
+      <c r="C406" s="15" t="s">
         <v>743</v>
       </c>
-      <c r="C406" s="15" t="s">
-        <v>744</v>
-      </c>
       <c r="D406" s="24">
         <v>5</v>
       </c>
       <c r="E406" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F406" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G406" s="15" t="s">
         <v>12</v>
@@ -12796,19 +12793,19 @@
         <v>7</v>
       </c>
       <c r="B407" s="15" t="s">
+        <v>744</v>
+      </c>
+      <c r="C407" s="15" t="s">
         <v>745</v>
       </c>
-      <c r="C407" s="15" t="s">
-        <v>746</v>
-      </c>
       <c r="D407" s="24">
         <v>5</v>
       </c>
       <c r="E407" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F407" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G407" s="15" t="s">
         <v>12</v>
@@ -12819,19 +12816,19 @@
         <v>7</v>
       </c>
       <c r="B408" s="15" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C408" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D408" s="24">
         <v>5</v>
       </c>
       <c r="E408" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F408" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G408" s="15" t="s">
         <v>12</v>
@@ -12842,19 +12839,19 @@
         <v>7</v>
       </c>
       <c r="B409" s="15" t="s">
+        <v>747</v>
+      </c>
+      <c r="C409" s="15" t="s">
         <v>748</v>
       </c>
-      <c r="C409" s="15" t="s">
+      <c r="D409" s="24">
+        <v>5</v>
+      </c>
+      <c r="E409" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="F409" s="15" t="s">
         <v>749</v>
-      </c>
-      <c r="D409" s="24">
-        <v>5</v>
-      </c>
-      <c r="E409" s="15" t="s">
-        <v>654</v>
-      </c>
-      <c r="F409" s="15" t="s">
-        <v>750</v>
       </c>
       <c r="G409" s="15" t="s">
         <v>12</v>
@@ -12865,19 +12862,19 @@
         <v>7</v>
       </c>
       <c r="B410" s="15" t="s">
+        <v>750</v>
+      </c>
+      <c r="C410" s="15" t="s">
         <v>751</v>
       </c>
-      <c r="C410" s="15" t="s">
-        <v>752</v>
-      </c>
       <c r="D410" s="24">
         <v>5</v>
       </c>
       <c r="E410" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F410" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G410" s="15" t="s">
         <v>12</v>
@@ -12888,19 +12885,19 @@
         <v>7</v>
       </c>
       <c r="B411" s="15" t="s">
+        <v>752</v>
+      </c>
+      <c r="C411" s="15" t="s">
         <v>753</v>
       </c>
-      <c r="C411" s="15" t="s">
-        <v>754</v>
-      </c>
       <c r="D411" s="24">
         <v>5</v>
       </c>
       <c r="E411" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F411" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G411" s="15" t="s">
         <v>12</v>
@@ -12911,19 +12908,19 @@
         <v>7</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C412" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D412" s="24">
         <v>5</v>
       </c>
       <c r="E412" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F412" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G412" s="15" t="s">
         <v>12</v>
@@ -12934,19 +12931,19 @@
         <v>7</v>
       </c>
       <c r="B413" s="15" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C413" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D413" s="24">
         <v>5</v>
       </c>
       <c r="E413" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F413" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G413" s="15" t="s">
         <v>12</v>
@@ -12957,19 +12954,19 @@
         <v>7</v>
       </c>
       <c r="B414" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C414" s="15" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D414" s="15">
         <v>5</v>
       </c>
       <c r="E414" s="24" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F414" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G414" s="15" t="s">
         <v>12</v>
@@ -12980,19 +12977,19 @@
         <v>7</v>
       </c>
       <c r="B415" s="15" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C415" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D415" s="24">
         <v>5</v>
       </c>
       <c r="E415" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F415" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G415" s="15" t="s">
         <v>12</v>
@@ -13003,19 +13000,19 @@
         <v>7</v>
       </c>
       <c r="B416" s="15" t="s">
+        <v>758</v>
+      </c>
+      <c r="C416" s="15" t="s">
         <v>759</v>
       </c>
-      <c r="C416" s="15" t="s">
-        <v>760</v>
-      </c>
       <c r="D416" s="24">
         <v>5</v>
       </c>
       <c r="E416" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F416" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G416" s="15" t="s">
         <v>12</v>
@@ -13026,19 +13023,19 @@
         <v>7</v>
       </c>
       <c r="B417" s="15" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C417" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D417" s="24">
         <v>5</v>
       </c>
       <c r="E417" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F417" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G417" s="15" t="s">
         <v>12</v>
@@ -13049,19 +13046,19 @@
         <v>7</v>
       </c>
       <c r="B418" s="15" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C418" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D418" s="24">
         <v>5</v>
       </c>
       <c r="E418" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F418" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G418" s="15" t="s">
         <v>12</v>
@@ -13072,19 +13069,19 @@
         <v>7</v>
       </c>
       <c r="B419" s="15" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C419" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D419" s="24">
         <v>5</v>
       </c>
       <c r="E419" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F419" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G419" s="15" t="s">
         <v>12</v>
@@ -13095,19 +13092,19 @@
         <v>7</v>
       </c>
       <c r="B420" s="15" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C420" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D420" s="24">
         <v>5</v>
       </c>
       <c r="E420" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F420" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G420" s="15" t="s">
         <v>12</v>
@@ -13118,19 +13115,19 @@
         <v>7</v>
       </c>
       <c r="B421" s="15" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C421" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D421" s="24">
         <v>5</v>
       </c>
       <c r="E421" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F421" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G421" s="15" t="s">
         <v>12</v>
@@ -13141,19 +13138,19 @@
         <v>7</v>
       </c>
       <c r="B422" s="15" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C422" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D422" s="24">
         <v>5</v>
       </c>
       <c r="E422" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F422" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G422" s="15" t="s">
         <v>12</v>
@@ -13164,19 +13161,19 @@
         <v>7</v>
       </c>
       <c r="B423" s="15" t="s">
+        <v>766</v>
+      </c>
+      <c r="C423" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="C423" s="15" t="s">
-        <v>768</v>
-      </c>
       <c r="D423" s="24">
         <v>5</v>
       </c>
       <c r="E423" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F423" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G423" s="15" t="s">
         <v>12</v>
@@ -13187,19 +13184,19 @@
         <v>7</v>
       </c>
       <c r="B424" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="C424" s="15" t="s">
         <v>769</v>
       </c>
-      <c r="C424" s="15" t="s">
-        <v>770</v>
-      </c>
       <c r="D424" s="24">
         <v>5</v>
       </c>
       <c r="E424" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F424" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G424" s="15" t="s">
         <v>12</v>
@@ -13210,19 +13207,19 @@
         <v>7</v>
       </c>
       <c r="B425" s="15" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C425" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D425" s="24">
         <v>5</v>
       </c>
       <c r="E425" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F425" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G425" s="15" t="s">
         <v>12</v>
@@ -13233,19 +13230,19 @@
         <v>7</v>
       </c>
       <c r="B426" s="15" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C426" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D426" s="24">
         <v>5</v>
       </c>
       <c r="E426" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F426" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G426" s="15" t="s">
         <v>12</v>
@@ -13256,19 +13253,19 @@
         <v>7</v>
       </c>
       <c r="B427" s="15" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C427" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D427" s="24">
         <v>5</v>
       </c>
       <c r="E427" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F427" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G427" s="15" t="s">
         <v>12</v>
@@ -13279,19 +13276,19 @@
         <v>7</v>
       </c>
       <c r="B428" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="C428" s="15" t="s">
         <v>774</v>
       </c>
-      <c r="C428" s="15" t="s">
-        <v>775</v>
-      </c>
       <c r="D428" s="24">
         <v>5</v>
       </c>
       <c r="E428" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F428" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G428" s="15" t="s">
         <v>12</v>
@@ -13302,19 +13299,19 @@
         <v>7</v>
       </c>
       <c r="B429" s="15" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C429" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D429" s="24">
         <v>5</v>
       </c>
       <c r="E429" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F429" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G429" s="15" t="s">
         <v>12</v>
@@ -13325,19 +13322,19 @@
         <v>7</v>
       </c>
       <c r="B430" s="15" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C430" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D430" s="24">
         <v>5</v>
       </c>
       <c r="E430" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F430" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G430" s="15" t="s">
         <v>12</v>
@@ -13348,7 +13345,7 @@
         <v>7</v>
       </c>
       <c r="B431" s="15" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C431" s="15" t="s">
         <v>63</v>
@@ -13356,11 +13353,11 @@
       <c r="D431" s="14">
         <v>5</v>
       </c>
-      <c r="E431" s="20" t="s">
-        <v>654</v>
+      <c r="E431" s="15" t="s">
+        <v>653</v>
       </c>
       <c r="F431" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G431" s="15" t="s">
         <v>12</v>
@@ -13371,19 +13368,19 @@
         <v>7</v>
       </c>
       <c r="B432" s="15" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C432" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D432" s="14">
         <v>5</v>
       </c>
-      <c r="E432" s="20" t="s">
-        <v>654</v>
+      <c r="E432" s="15" t="s">
+        <v>653</v>
       </c>
       <c r="F432" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G432" s="15" t="s">
         <v>12</v>
@@ -13394,19 +13391,19 @@
         <v>7</v>
       </c>
       <c r="B433" s="15" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C433" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D433" s="14">
         <v>5</v>
       </c>
-      <c r="E433" s="20" t="s">
-        <v>654</v>
+      <c r="E433" s="15" t="s">
+        <v>653</v>
       </c>
       <c r="F433" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G433" s="15" t="s">
         <v>12</v>
@@ -13417,19 +13414,19 @@
         <v>7</v>
       </c>
       <c r="B434" s="15" t="s">
+        <v>780</v>
+      </c>
+      <c r="C434" s="15" t="s">
         <v>781</v>
       </c>
-      <c r="C434" s="15" t="s">
-        <v>782</v>
-      </c>
       <c r="D434" s="14">
         <v>5</v>
       </c>
-      <c r="E434" s="20" t="s">
-        <v>654</v>
+      <c r="E434" s="15" t="s">
+        <v>653</v>
       </c>
       <c r="F434" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G434" s="15" t="s">
         <v>12</v>
@@ -13440,19 +13437,19 @@
         <v>7</v>
       </c>
       <c r="B435" s="15" t="s">
+        <v>782</v>
+      </c>
+      <c r="C435" s="15" t="s">
         <v>783</v>
       </c>
-      <c r="C435" s="15" t="s">
-        <v>784</v>
-      </c>
       <c r="D435" s="14">
         <v>5</v>
       </c>
-      <c r="E435" s="20" t="s">
-        <v>654</v>
+      <c r="E435" s="15" t="s">
+        <v>653</v>
       </c>
       <c r="F435" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G435" s="15" t="s">
         <v>12</v>
@@ -13463,19 +13460,19 @@
         <v>7</v>
       </c>
       <c r="B436" s="15" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C436" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D436" s="24">
         <v>5</v>
       </c>
       <c r="E436" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F436" s="24" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G436" s="15" t="s">
         <v>12</v>
@@ -13486,19 +13483,19 @@
         <v>7</v>
       </c>
       <c r="B437" s="15" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C437" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D437" s="24">
         <v>5</v>
       </c>
       <c r="E437" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F437" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G437" s="15" t="s">
         <v>12</v>
@@ -13509,19 +13506,19 @@
         <v>7</v>
       </c>
       <c r="B438" s="15" t="s">
+        <v>786</v>
+      </c>
+      <c r="C438" s="15" t="s">
         <v>787</v>
       </c>
-      <c r="C438" s="15" t="s">
-        <v>788</v>
-      </c>
       <c r="D438" s="24">
         <v>5</v>
       </c>
       <c r="E438" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F438" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G438" s="15" t="s">
         <v>12</v>
@@ -13532,19 +13529,19 @@
         <v>7</v>
       </c>
       <c r="B439" s="15" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C439" s="15" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D439" s="24">
         <v>5</v>
       </c>
       <c r="E439" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F439" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G439" s="15" t="s">
         <v>12</v>
@@ -13555,19 +13552,19 @@
         <v>7</v>
       </c>
       <c r="B440" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="C440" s="15" t="s">
         <v>790</v>
       </c>
-      <c r="C440" s="15" t="s">
-        <v>791</v>
-      </c>
       <c r="D440" s="24">
         <v>5</v>
       </c>
       <c r="E440" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F440" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G440" s="15" t="s">
         <v>12</v>
@@ -13578,19 +13575,19 @@
         <v>7</v>
       </c>
       <c r="B441" s="15" t="s">
+        <v>791</v>
+      </c>
+      <c r="C441" s="15" t="s">
         <v>792</v>
       </c>
-      <c r="C441" s="15" t="s">
-        <v>793</v>
-      </c>
       <c r="D441" s="24">
         <v>5</v>
       </c>
       <c r="E441" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F441" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G441" s="15" t="s">
         <v>12</v>
@@ -13601,19 +13598,19 @@
         <v>7</v>
       </c>
       <c r="B442" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="C442" s="15" t="s">
         <v>794</v>
       </c>
-      <c r="C442" s="15" t="s">
-        <v>795</v>
-      </c>
       <c r="D442" s="24">
         <v>5</v>
       </c>
       <c r="E442" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F442" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G442" s="15" t="s">
         <v>12</v>
@@ -13624,19 +13621,19 @@
         <v>7</v>
       </c>
       <c r="B443" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="C443" s="15" t="s">
         <v>796</v>
       </c>
-      <c r="C443" s="15" t="s">
-        <v>797</v>
-      </c>
       <c r="D443" s="24">
         <v>5</v>
       </c>
       <c r="E443" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F443" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G443" s="15" t="s">
         <v>12</v>
@@ -13647,19 +13644,19 @@
         <v>7</v>
       </c>
       <c r="B444" s="15" t="s">
+        <v>797</v>
+      </c>
+      <c r="C444" s="15" t="s">
         <v>798</v>
       </c>
-      <c r="C444" s="15" t="s">
-        <v>799</v>
-      </c>
       <c r="D444" s="24">
         <v>5</v>
       </c>
       <c r="E444" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F444" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G444" s="15" t="s">
         <v>12</v>
@@ -13670,19 +13667,19 @@
         <v>7</v>
       </c>
       <c r="B445" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="C445" s="15" t="s">
         <v>800</v>
       </c>
-      <c r="C445" s="15" t="s">
-        <v>801</v>
-      </c>
       <c r="D445" s="24">
         <v>5</v>
       </c>
       <c r="E445" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F445" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G445" s="15" t="s">
         <v>12</v>
@@ -13693,19 +13690,19 @@
         <v>7</v>
       </c>
       <c r="B446" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="C446" s="15" t="s">
         <v>802</v>
       </c>
-      <c r="C446" s="15" t="s">
-        <v>803</v>
-      </c>
       <c r="D446" s="24">
         <v>5</v>
       </c>
       <c r="E446" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F446" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G446" s="15" t="s">
         <v>12</v>
@@ -13716,19 +13713,19 @@
         <v>7</v>
       </c>
       <c r="B447" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="C447" s="15" t="s">
         <v>804</v>
       </c>
-      <c r="C447" s="15" t="s">
-        <v>805</v>
-      </c>
       <c r="D447" s="24">
         <v>5</v>
       </c>
       <c r="E447" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F447" s="15" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G447" s="15" t="s">
         <v>12</v>
@@ -13739,19 +13736,19 @@
         <v>7</v>
       </c>
       <c r="B448" s="15" t="s">
+        <v>805</v>
+      </c>
+      <c r="C448" s="15" t="s">
         <v>806</v>
       </c>
-      <c r="C448" s="15" t="s">
-        <v>807</v>
-      </c>
       <c r="D448" s="24">
         <v>5</v>
       </c>
       <c r="E448" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F448" s="15" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G448" s="15" t="s">
         <v>12</v>
@@ -13762,19 +13759,19 @@
         <v>7</v>
       </c>
       <c r="B449" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="C449" s="15" t="s">
         <v>808</v>
       </c>
-      <c r="C449" s="15" t="s">
-        <v>809</v>
-      </c>
       <c r="D449" s="24">
         <v>5</v>
       </c>
       <c r="E449" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F449" s="15" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G449" s="15" t="s">
         <v>12</v>
@@ -13785,19 +13782,19 @@
         <v>7</v>
       </c>
       <c r="B450" s="15" t="s">
+        <v>809</v>
+      </c>
+      <c r="C450" s="15" t="s">
         <v>810</v>
       </c>
-      <c r="C450" s="15" t="s">
-        <v>811</v>
-      </c>
       <c r="D450" s="24">
         <v>5</v>
       </c>
       <c r="E450" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F450" s="15" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G450" s="15" t="s">
         <v>12</v>
@@ -13808,19 +13805,19 @@
         <v>7</v>
       </c>
       <c r="B451" s="15" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C451" s="15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D451" s="24">
         <v>5</v>
       </c>
       <c r="E451" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F451" s="15" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G451" s="15" t="s">
         <v>12</v>
@@ -13831,19 +13828,19 @@
         <v>7</v>
       </c>
       <c r="B452" s="15" t="s">
+        <v>812</v>
+      </c>
+      <c r="C452" s="15" t="s">
         <v>813</v>
       </c>
-      <c r="C452" s="15" t="s">
-        <v>814</v>
-      </c>
       <c r="D452" s="24">
         <v>5</v>
       </c>
       <c r="E452" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F452" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G452" s="15" t="s">
         <v>12</v>
@@ -13854,19 +13851,19 @@
         <v>7</v>
       </c>
       <c r="B453" s="15" t="s">
+        <v>814</v>
+      </c>
+      <c r="C453" s="15" t="s">
         <v>815</v>
       </c>
-      <c r="C453" s="15" t="s">
-        <v>816</v>
-      </c>
       <c r="D453" s="24">
         <v>5</v>
       </c>
       <c r="E453" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F453" s="15" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G453" s="15" t="s">
         <v>12</v>
@@ -13877,19 +13874,19 @@
         <v>7</v>
       </c>
       <c r="B454" s="15" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C454" s="15" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D454" s="24">
         <v>5</v>
       </c>
       <c r="E454" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F454" s="15" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G454" s="15" t="s">
         <v>12</v>
@@ -13900,19 +13897,19 @@
         <v>7</v>
       </c>
       <c r="B455" s="15" t="s">
+        <v>817</v>
+      </c>
+      <c r="C455" s="15" t="s">
         <v>818</v>
       </c>
-      <c r="C455" s="15" t="s">
-        <v>819</v>
-      </c>
       <c r="D455" s="24">
         <v>5</v>
       </c>
       <c r="E455" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F455" s="15" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G455" s="15" t="s">
         <v>12</v>
@@ -13923,19 +13920,19 @@
         <v>7</v>
       </c>
       <c r="B456" s="15" t="s">
+        <v>819</v>
+      </c>
+      <c r="C456" s="15" t="s">
         <v>820</v>
       </c>
-      <c r="C456" s="15" t="s">
-        <v>821</v>
-      </c>
       <c r="D456" s="24">
         <v>5</v>
       </c>
       <c r="E456" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F456" s="15" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G456" s="15" t="s">
         <v>12</v>
@@ -13946,19 +13943,19 @@
         <v>7</v>
       </c>
       <c r="B457" s="15" t="s">
+        <v>821</v>
+      </c>
+      <c r="C457" s="15" t="s">
         <v>822</v>
       </c>
-      <c r="C457" s="15" t="s">
-        <v>823</v>
-      </c>
       <c r="D457" s="24">
         <v>5</v>
       </c>
       <c r="E457" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F457" s="15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G457" s="15" t="s">
         <v>12</v>
@@ -13969,19 +13966,19 @@
         <v>7</v>
       </c>
       <c r="B458" s="15" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C458" s="15" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D458" s="24">
         <v>5</v>
       </c>
       <c r="E458" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F458" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G458" s="15" t="s">
         <v>12</v>
@@ -13992,19 +13989,19 @@
         <v>7</v>
       </c>
       <c r="B459" s="15" t="s">
+        <v>824</v>
+      </c>
+      <c r="C459" s="15" t="s">
         <v>825</v>
       </c>
-      <c r="C459" s="15" t="s">
-        <v>826</v>
-      </c>
       <c r="D459" s="24">
         <v>5</v>
       </c>
       <c r="E459" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F459" s="15" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G459" s="15" t="s">
         <v>12</v>
@@ -14015,19 +14012,19 @@
         <v>7</v>
       </c>
       <c r="B460" s="15" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C460" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D460" s="24">
         <v>5</v>
       </c>
       <c r="E460" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F460" s="15" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G460" s="15" t="s">
         <v>12</v>
@@ -14038,19 +14035,19 @@
         <v>7</v>
       </c>
       <c r="B461" s="15" t="s">
+        <v>827</v>
+      </c>
+      <c r="C461" s="15" t="s">
         <v>828</v>
       </c>
-      <c r="C461" s="15" t="s">
-        <v>829</v>
-      </c>
       <c r="D461" s="24">
         <v>5</v>
       </c>
       <c r="E461" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F461" s="15" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G461" s="15" t="s">
         <v>12</v>
@@ -14061,19 +14058,19 @@
         <v>7</v>
       </c>
       <c r="B462" s="15" t="s">
+        <v>829</v>
+      </c>
+      <c r="C462" s="15" t="s">
         <v>830</v>
       </c>
-      <c r="C462" s="15" t="s">
-        <v>831</v>
-      </c>
       <c r="D462" s="24">
         <v>5</v>
       </c>
       <c r="E462" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F462" s="15" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G462" s="15" t="s">
         <v>12</v>
@@ -14084,19 +14081,19 @@
         <v>7</v>
       </c>
       <c r="B463" s="15" t="s">
+        <v>831</v>
+      </c>
+      <c r="C463" s="15" t="s">
         <v>832</v>
       </c>
-      <c r="C463" s="15" t="s">
-        <v>833</v>
-      </c>
       <c r="D463" s="24">
         <v>5</v>
       </c>
       <c r="E463" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F463" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G463" s="15" t="s">
         <v>12</v>
@@ -14107,19 +14104,19 @@
         <v>7</v>
       </c>
       <c r="B464" s="15" t="s">
+        <v>833</v>
+      </c>
+      <c r="C464" s="15" t="s">
         <v>834</v>
       </c>
-      <c r="C464" s="15" t="s">
-        <v>835</v>
-      </c>
       <c r="D464" s="24">
         <v>5</v>
       </c>
       <c r="E464" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F464" s="15" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G464" s="15" t="s">
         <v>12</v>
@@ -14130,19 +14127,19 @@
         <v>7</v>
       </c>
       <c r="B465" s="15" t="s">
+        <v>835</v>
+      </c>
+      <c r="C465" s="15" t="s">
         <v>836</v>
       </c>
-      <c r="C465" s="15" t="s">
-        <v>837</v>
-      </c>
       <c r="D465" s="24">
         <v>5</v>
       </c>
       <c r="E465" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F465" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G465" s="15" t="s">
         <v>12</v>
@@ -14153,19 +14150,19 @@
         <v>7</v>
       </c>
       <c r="B466" s="15" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C466" s="15" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D466" s="24">
         <v>5</v>
       </c>
       <c r="E466" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F466" s="15" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G466" s="15" t="s">
         <v>12</v>
@@ -14176,19 +14173,19 @@
         <v>7</v>
       </c>
       <c r="B467" s="15" t="s">
+        <v>838</v>
+      </c>
+      <c r="C467" s="15" t="s">
         <v>839</v>
       </c>
-      <c r="C467" s="15" t="s">
-        <v>840</v>
-      </c>
       <c r="D467" s="24">
         <v>5</v>
       </c>
       <c r="E467" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F467" s="15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G467" s="15" t="s">
         <v>12</v>
@@ -14199,19 +14196,19 @@
         <v>7</v>
       </c>
       <c r="B468" s="15" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C468" s="15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D468" s="24">
         <v>5</v>
       </c>
       <c r="E468" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F468" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G468" s="15" t="s">
         <v>12</v>
@@ -14222,19 +14219,19 @@
         <v>7</v>
       </c>
       <c r="B469" s="15" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C469" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="D469" s="24">
+        <v>5</v>
+      </c>
+      <c r="E469" s="15" t="s">
+        <v>653</v>
+      </c>
+      <c r="F469" s="15" t="s">
         <v>501</v>
-      </c>
-      <c r="D469" s="24">
-        <v>5</v>
-      </c>
-      <c r="E469" s="15" t="s">
-        <v>654</v>
-      </c>
-      <c r="F469" s="15" t="s">
-        <v>502</v>
       </c>
       <c r="G469" s="15" t="s">
         <v>12</v>
@@ -14245,19 +14242,19 @@
         <v>7</v>
       </c>
       <c r="B470" s="15" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C470" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D470" s="24">
         <v>5</v>
       </c>
       <c r="E470" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F470" s="15" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G470" s="15" t="s">
         <v>12</v>
@@ -14268,19 +14265,19 @@
         <v>7</v>
       </c>
       <c r="B471" s="15" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C471" s="15" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D471" s="24">
         <v>5</v>
       </c>
       <c r="E471" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F471" s="15" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G471" s="15" t="s">
         <v>12</v>
@@ -14291,19 +14288,19 @@
         <v>7</v>
       </c>
       <c r="B472" s="15" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C472" s="15" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D472" s="24">
         <v>5</v>
       </c>
       <c r="E472" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F472" s="15" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G472" s="15" t="s">
         <v>12</v>
@@ -14314,19 +14311,19 @@
         <v>7</v>
       </c>
       <c r="B473" s="15" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C473" s="15" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D473" s="24">
         <v>5</v>
       </c>
       <c r="E473" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F473" s="15" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G473" s="15" t="s">
         <v>12</v>
@@ -14337,19 +14334,19 @@
         <v>7</v>
       </c>
       <c r="B474" s="15" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C474" s="15" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D474" s="24">
         <v>5</v>
       </c>
       <c r="E474" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F474" s="15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G474" s="15" t="s">
         <v>12</v>
@@ -14360,19 +14357,19 @@
         <v>7</v>
       </c>
       <c r="B475" s="15" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C475" s="15" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D475" s="24">
         <v>5</v>
       </c>
       <c r="E475" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F475" s="15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G475" s="15" t="s">
         <v>12</v>
@@ -14383,19 +14380,19 @@
         <v>7</v>
       </c>
       <c r="B476" s="15" t="s">
+        <v>848</v>
+      </c>
+      <c r="C476" s="15" t="s">
         <v>849</v>
       </c>
-      <c r="C476" s="15" t="s">
-        <v>850</v>
-      </c>
       <c r="D476" s="24">
         <v>5</v>
       </c>
       <c r="E476" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F476" s="15" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G476" s="15" t="s">
         <v>12</v>
@@ -14406,19 +14403,19 @@
         <v>7</v>
       </c>
       <c r="B477" s="15" t="s">
+        <v>850</v>
+      </c>
+      <c r="C477" s="15" t="s">
         <v>851</v>
       </c>
-      <c r="C477" s="15" t="s">
-        <v>852</v>
-      </c>
       <c r="D477" s="24">
         <v>5</v>
       </c>
       <c r="E477" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F477" s="15" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G477" s="15" t="s">
         <v>12</v>
@@ -14429,19 +14426,19 @@
         <v>7</v>
       </c>
       <c r="B478" s="15" t="s">
+        <v>852</v>
+      </c>
+      <c r="C478" s="15" t="s">
         <v>853</v>
       </c>
-      <c r="C478" s="15" t="s">
-        <v>854</v>
-      </c>
       <c r="D478" s="24">
         <v>5</v>
       </c>
       <c r="E478" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F478" s="15" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G478" s="15" t="s">
         <v>12</v>
@@ -14452,19 +14449,19 @@
         <v>7</v>
       </c>
       <c r="B479" s="15" t="s">
+        <v>854</v>
+      </c>
+      <c r="C479" s="15" t="s">
         <v>855</v>
       </c>
-      <c r="C479" s="15" t="s">
-        <v>856</v>
-      </c>
       <c r="D479" s="24">
         <v>5</v>
       </c>
       <c r="E479" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F479" s="15" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G479" s="15" t="s">
         <v>12</v>
@@ -14475,19 +14472,19 @@
         <v>7</v>
       </c>
       <c r="B480" s="15" t="s">
+        <v>856</v>
+      </c>
+      <c r="C480" s="15" t="s">
         <v>857</v>
       </c>
-      <c r="C480" s="15" t="s">
-        <v>858</v>
-      </c>
       <c r="D480" s="24">
         <v>5</v>
       </c>
       <c r="E480" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F480" s="15" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G480" s="15" t="s">
         <v>12</v>
@@ -14498,19 +14495,19 @@
         <v>7</v>
       </c>
       <c r="B481" s="15" t="s">
+        <v>858</v>
+      </c>
+      <c r="C481" s="15" t="s">
         <v>859</v>
       </c>
-      <c r="C481" s="15" t="s">
-        <v>860</v>
-      </c>
       <c r="D481" s="24">
         <v>5</v>
       </c>
       <c r="E481" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F481" s="15" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G481" s="15" t="s">
         <v>12</v>
@@ -14521,19 +14518,19 @@
         <v>7</v>
       </c>
       <c r="B482" s="15" t="s">
+        <v>860</v>
+      </c>
+      <c r="C482" s="15" t="s">
         <v>861</v>
       </c>
-      <c r="C482" s="15" t="s">
-        <v>862</v>
-      </c>
       <c r="D482" s="24">
         <v>5</v>
       </c>
       <c r="E482" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F482" s="15" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G482" s="15" t="s">
         <v>12</v>
@@ -14544,19 +14541,19 @@
         <v>7</v>
       </c>
       <c r="B483" s="15" t="s">
+        <v>862</v>
+      </c>
+      <c r="C483" s="15" t="s">
         <v>863</v>
       </c>
-      <c r="C483" s="15" t="s">
-        <v>864</v>
-      </c>
       <c r="D483" s="24">
         <v>5</v>
       </c>
       <c r="E483" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F483" s="15" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G483" s="15" t="s">
         <v>12</v>
@@ -14567,19 +14564,19 @@
         <v>7</v>
       </c>
       <c r="B484" s="15" t="s">
+        <v>864</v>
+      </c>
+      <c r="C484" s="15" t="s">
         <v>865</v>
       </c>
-      <c r="C484" s="15" t="s">
-        <v>866</v>
-      </c>
       <c r="D484" s="24">
         <v>5</v>
       </c>
       <c r="E484" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F484" s="15" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G484" s="15" t="s">
         <v>12</v>
@@ -14590,7 +14587,7 @@
         <v>7</v>
       </c>
       <c r="B485" s="15" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C485" s="15" t="s">
         <v>157</v>
@@ -14598,11 +14595,11 @@
       <c r="D485" s="14">
         <v>5</v>
       </c>
-      <c r="E485" s="20" t="s">
-        <v>654</v>
+      <c r="E485" s="15" t="s">
+        <v>653</v>
       </c>
       <c r="F485" s="22" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="G485" s="15" t="s">
         <v>12</v>
@@ -14613,19 +14610,19 @@
         <v>7</v>
       </c>
       <c r="B486" s="15" t="s">
+        <v>867</v>
+      </c>
+      <c r="C486" s="15" t="s">
         <v>868</v>
       </c>
-      <c r="C486" s="15" t="s">
-        <v>869</v>
-      </c>
       <c r="D486" s="24">
         <v>5</v>
       </c>
       <c r="E486" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F486" s="15" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G486" s="15" t="s">
         <v>12</v>
@@ -14636,19 +14633,19 @@
         <v>7</v>
       </c>
       <c r="B487" s="15" t="s">
+        <v>869</v>
+      </c>
+      <c r="C487" s="15" t="s">
         <v>870</v>
       </c>
-      <c r="C487" s="15" t="s">
-        <v>871</v>
-      </c>
       <c r="D487" s="24">
         <v>5</v>
       </c>
       <c r="E487" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F487" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G487" s="15" t="s">
         <v>12</v>
@@ -14659,19 +14656,19 @@
         <v>7</v>
       </c>
       <c r="B488" s="15" t="s">
+        <v>871</v>
+      </c>
+      <c r="C488" s="15" t="s">
         <v>872</v>
       </c>
-      <c r="C488" s="15" t="s">
-        <v>873</v>
-      </c>
       <c r="D488" s="24">
         <v>5</v>
       </c>
       <c r="E488" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F488" s="15" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G488" s="15" t="s">
         <v>12</v>
@@ -14682,19 +14679,19 @@
         <v>7</v>
       </c>
       <c r="B489" s="15" t="s">
+        <v>873</v>
+      </c>
+      <c r="C489" s="15" t="s">
         <v>874</v>
       </c>
-      <c r="C489" s="15" t="s">
-        <v>875</v>
-      </c>
       <c r="D489" s="24">
         <v>5</v>
       </c>
       <c r="E489" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F489" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G489" s="15" t="s">
         <v>12</v>
@@ -14705,19 +14702,19 @@
         <v>7</v>
       </c>
       <c r="B490" s="15" t="s">
+        <v>875</v>
+      </c>
+      <c r="C490" s="15" t="s">
         <v>876</v>
       </c>
-      <c r="C490" s="15" t="s">
-        <v>877</v>
-      </c>
       <c r="D490" s="24">
         <v>5</v>
       </c>
       <c r="E490" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F490" s="15" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G490" s="15" t="s">
         <v>12</v>
@@ -14728,19 +14725,19 @@
         <v>7</v>
       </c>
       <c r="B491" s="15" t="s">
+        <v>877</v>
+      </c>
+      <c r="C491" s="15" t="s">
         <v>878</v>
       </c>
-      <c r="C491" s="15" t="s">
-        <v>879</v>
-      </c>
       <c r="D491" s="24">
         <v>5</v>
       </c>
       <c r="E491" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F491" s="15" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G491" s="15" t="s">
         <v>12</v>
@@ -14751,19 +14748,19 @@
         <v>7</v>
       </c>
       <c r="B492" s="15" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C492" s="15" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D492" s="24">
         <v>5</v>
       </c>
       <c r="E492" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F492" s="15" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G492" s="15" t="s">
         <v>12</v>
@@ -14774,19 +14771,19 @@
         <v>7</v>
       </c>
       <c r="B493" s="15" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C493" s="15" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D493" s="24">
         <v>5</v>
       </c>
       <c r="E493" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F493" s="15" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G493" s="15" t="s">
         <v>12</v>
@@ -14797,19 +14794,19 @@
         <v>7</v>
       </c>
       <c r="B494" s="15" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C494" s="15" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D494" s="24">
         <v>5</v>
       </c>
       <c r="E494" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F494" s="15" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G494" s="15" t="s">
         <v>12</v>
@@ -14820,19 +14817,19 @@
         <v>7</v>
       </c>
       <c r="B495" s="15" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C495" s="15" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D495" s="24">
         <v>5</v>
       </c>
       <c r="E495" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F495" s="15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G495" s="15" t="s">
         <v>12</v>
@@ -14843,19 +14840,19 @@
         <v>7</v>
       </c>
       <c r="B496" s="15" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C496" s="15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D496" s="24">
         <v>5</v>
       </c>
       <c r="E496" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F496" s="15" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G496" s="15" t="s">
         <v>12</v>
@@ -14866,19 +14863,19 @@
         <v>7</v>
       </c>
       <c r="B497" s="15" t="s">
+        <v>884</v>
+      </c>
+      <c r="C497" s="15" t="s">
         <v>885</v>
       </c>
-      <c r="C497" s="15" t="s">
-        <v>886</v>
-      </c>
       <c r="D497" s="24">
         <v>5</v>
       </c>
       <c r="E497" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F497" s="15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G497" s="15" t="s">
         <v>12</v>
@@ -14889,7 +14886,7 @@
         <v>7</v>
       </c>
       <c r="B498" s="15" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C498" s="15" t="s">
         <v>166</v>
@@ -14898,10 +14895,10 @@
         <v>5</v>
       </c>
       <c r="E498" s="20" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F498" s="22" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G498" s="15" t="s">
         <v>12</v>
@@ -14912,19 +14909,19 @@
         <v>7</v>
       </c>
       <c r="B499" s="15" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C499" s="15" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D499" s="24">
         <v>5</v>
       </c>
       <c r="E499" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F499" s="15" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G499" s="15" t="s">
         <v>12</v>
@@ -14935,19 +14932,19 @@
         <v>7</v>
       </c>
       <c r="B500" s="15" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C500" s="15" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D500" s="24">
         <v>5</v>
       </c>
       <c r="E500" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F500" s="15" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G500" s="15" t="s">
         <v>12</v>
@@ -14958,19 +14955,19 @@
         <v>7</v>
       </c>
       <c r="B501" s="15" t="s">
+        <v>890</v>
+      </c>
+      <c r="C501" s="15" t="s">
         <v>891</v>
       </c>
-      <c r="C501" s="15" t="s">
-        <v>892</v>
-      </c>
       <c r="D501" s="24">
         <v>5</v>
       </c>
       <c r="E501" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F501" s="15" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G501" s="15" t="s">
         <v>12</v>
@@ -14981,19 +14978,19 @@
         <v>7</v>
       </c>
       <c r="B502" s="15" t="s">
+        <v>892</v>
+      </c>
+      <c r="C502" s="15" t="s">
         <v>893</v>
       </c>
-      <c r="C502" s="15" t="s">
-        <v>894</v>
-      </c>
       <c r="D502" s="24">
         <v>5</v>
       </c>
       <c r="E502" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F502" s="15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G502" s="15" t="s">
         <v>12</v>
@@ -15004,19 +15001,19 @@
         <v>7</v>
       </c>
       <c r="B503" s="15" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="C503" s="15" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D503" s="24">
         <v>5</v>
       </c>
       <c r="E503" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F503" s="15" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G503" s="15" t="s">
         <v>12</v>
@@ -15027,19 +15024,19 @@
         <v>7</v>
       </c>
       <c r="B504" s="15" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="C504" s="15" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D504" s="24">
         <v>5</v>
       </c>
       <c r="E504" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F504" s="15" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G504" s="15" t="s">
         <v>12</v>
@@ -15050,19 +15047,19 @@
         <v>7</v>
       </c>
       <c r="B505" s="15" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="C505" s="15" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D505" s="24">
         <v>5</v>
       </c>
       <c r="E505" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F505" s="15" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G505" s="15" t="s">
         <v>12</v>
@@ -15073,19 +15070,19 @@
         <v>7</v>
       </c>
       <c r="B506" s="15" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C506" s="15" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D506" s="24">
         <v>5</v>
       </c>
       <c r="E506" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F506" s="15" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G506" s="15" t="s">
         <v>12</v>
@@ -15096,19 +15093,19 @@
         <v>7</v>
       </c>
       <c r="B507" s="15" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C507" s="15" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D507" s="24">
         <v>5</v>
       </c>
       <c r="E507" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F507" s="15" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G507" s="15" t="s">
         <v>12</v>
@@ -15119,19 +15116,19 @@
         <v>7</v>
       </c>
       <c r="B508" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="C508" s="15" t="s">
         <v>900</v>
       </c>
-      <c r="C508" s="15" t="s">
-        <v>901</v>
-      </c>
       <c r="D508" s="24">
         <v>5</v>
       </c>
       <c r="E508" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F508" s="15" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G508" s="15" t="s">
         <v>12</v>
@@ -15142,19 +15139,19 @@
         <v>7</v>
       </c>
       <c r="B509" s="15" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="C509" s="15" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D509" s="24">
         <v>5</v>
       </c>
       <c r="E509" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F509" s="15" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G509" s="15" t="s">
         <v>12</v>
@@ -15165,19 +15162,19 @@
         <v>7</v>
       </c>
       <c r="B510" s="15" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="C510" s="15" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D510" s="24">
         <v>5</v>
       </c>
       <c r="E510" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F510" s="15" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G510" s="15" t="s">
         <v>12</v>
@@ -15188,19 +15185,19 @@
         <v>7</v>
       </c>
       <c r="B511" s="15" t="s">
+        <v>903</v>
+      </c>
+      <c r="C511" s="15" t="s">
         <v>904</v>
       </c>
-      <c r="C511" s="15" t="s">
-        <v>905</v>
-      </c>
       <c r="D511" s="24">
         <v>5</v>
       </c>
       <c r="E511" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F511" s="15" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G511" s="15" t="s">
         <v>12</v>
@@ -15211,19 +15208,19 @@
         <v>7</v>
       </c>
       <c r="B512" s="15" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="C512" s="15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D512" s="24">
         <v>5</v>
       </c>
       <c r="E512" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F512" s="15" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G512" s="15" t="s">
         <v>12</v>
@@ -15234,19 +15231,19 @@
         <v>7</v>
       </c>
       <c r="B513" s="15" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="C513" s="15" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D513" s="24">
         <v>5</v>
       </c>
       <c r="E513" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F513" s="15" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G513" s="15" t="s">
         <v>12</v>
@@ -15257,19 +15254,19 @@
         <v>7</v>
       </c>
       <c r="B514" s="15" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C514" s="15" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D514" s="24">
         <v>5</v>
       </c>
       <c r="E514" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F514" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="G514" s="15" t="s">
         <v>12</v>
@@ -15280,19 +15277,19 @@
         <v>7</v>
       </c>
       <c r="B515" s="15" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="C515" s="15" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D515" s="24">
         <v>5</v>
       </c>
       <c r="E515" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F515" s="15" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G515" s="15" t="s">
         <v>12</v>
@@ -15303,19 +15300,19 @@
         <v>7</v>
       </c>
       <c r="B516" s="15" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C516" s="15" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D516" s="24">
         <v>5</v>
       </c>
       <c r="E516" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F516" s="15" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G516" s="15" t="s">
         <v>12</v>
@@ -15326,19 +15323,19 @@
         <v>7</v>
       </c>
       <c r="B517" s="15" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C517" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D517" s="24">
         <v>5</v>
       </c>
       <c r="E517" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F517" s="15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G517" s="15" t="s">
         <v>12</v>
@@ -15349,19 +15346,19 @@
         <v>7</v>
       </c>
       <c r="B518" s="15" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C518" s="15" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D518" s="24">
         <v>5</v>
       </c>
       <c r="E518" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F518" s="15" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G518" s="15" t="s">
         <v>12</v>
@@ -15372,19 +15369,19 @@
         <v>7</v>
       </c>
       <c r="B519" s="15" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C519" s="15" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D519" s="24">
         <v>5</v>
       </c>
       <c r="E519" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F519" s="15" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G519" s="15" t="s">
         <v>12</v>
@@ -15395,19 +15392,19 @@
         <v>7</v>
       </c>
       <c r="B520" s="15" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C520" s="15" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D520" s="24">
         <v>5</v>
       </c>
       <c r="E520" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F520" s="15" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G520" s="15" t="s">
         <v>12</v>
@@ -15418,19 +15415,19 @@
         <v>7</v>
       </c>
       <c r="B521" s="15" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C521" s="15" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D521" s="24">
         <v>5</v>
       </c>
       <c r="E521" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F521" s="15" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G521" s="15" t="s">
         <v>12</v>
@@ -15441,19 +15438,19 @@
         <v>7</v>
       </c>
       <c r="B522" s="15" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C522" s="15" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D522" s="24">
         <v>5</v>
       </c>
       <c r="E522" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F522" s="15" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G522" s="15" t="s">
         <v>12</v>
@@ -15464,19 +15461,19 @@
         <v>7</v>
       </c>
       <c r="B523" s="15" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C523" s="15" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D523" s="24">
         <v>5</v>
       </c>
       <c r="E523" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F523" s="15" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G523" s="15" t="s">
         <v>12</v>
@@ -15487,19 +15484,19 @@
         <v>7</v>
       </c>
       <c r="B524" s="15" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C524" s="15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D524" s="24">
         <v>5</v>
       </c>
       <c r="E524" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F524" s="15" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G524" s="15" t="s">
         <v>12</v>
@@ -15510,19 +15507,19 @@
         <v>7</v>
       </c>
       <c r="B525" s="15" t="s">
+        <v>918</v>
+      </c>
+      <c r="C525" s="15" t="s">
         <v>919</v>
       </c>
-      <c r="C525" s="15" t="s">
-        <v>920</v>
-      </c>
       <c r="D525" s="24">
         <v>5</v>
       </c>
       <c r="E525" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F525" s="15" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G525" s="15" t="s">
         <v>12</v>
@@ -15533,19 +15530,19 @@
         <v>7</v>
       </c>
       <c r="B526" s="15" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C526" s="15" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D526" s="24">
         <v>5</v>
       </c>
       <c r="E526" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F526" s="15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G526" s="15" t="s">
         <v>12</v>
@@ -15556,19 +15553,19 @@
         <v>7</v>
       </c>
       <c r="B527" s="15" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C527" s="15" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D527" s="24">
         <v>5</v>
       </c>
       <c r="E527" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F527" s="15" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G527" s="15" t="s">
         <v>12</v>
@@ -15579,19 +15576,19 @@
         <v>7</v>
       </c>
       <c r="B528" s="15" t="s">
+        <v>922</v>
+      </c>
+      <c r="C528" s="15" t="s">
         <v>923</v>
       </c>
-      <c r="C528" s="15" t="s">
-        <v>924</v>
-      </c>
       <c r="D528" s="24">
         <v>5</v>
       </c>
       <c r="E528" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F528" s="15" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G528" s="15" t="s">
         <v>12</v>
@@ -15602,19 +15599,19 @@
         <v>7</v>
       </c>
       <c r="B529" s="15" t="s">
+        <v>924</v>
+      </c>
+      <c r="C529" s="15" t="s">
         <v>925</v>
       </c>
-      <c r="C529" s="15" t="s">
-        <v>926</v>
-      </c>
       <c r="D529" s="24">
         <v>5</v>
       </c>
       <c r="E529" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F529" s="15" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G529" s="15" t="s">
         <v>12</v>
@@ -15625,19 +15622,19 @@
         <v>7</v>
       </c>
       <c r="B530" s="15" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C530" s="15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D530" s="24">
         <v>5</v>
       </c>
       <c r="E530" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F530" s="15" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G530" s="15" t="s">
         <v>12</v>
@@ -15648,19 +15645,19 @@
         <v>7</v>
       </c>
       <c r="B531" s="15" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C531" s="15" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D531" s="24">
         <v>5</v>
       </c>
       <c r="E531" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F531" s="15" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G531" s="15" t="s">
         <v>12</v>
@@ -15671,19 +15668,19 @@
         <v>7</v>
       </c>
       <c r="B532" s="15" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C532" s="15" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D532" s="24">
         <v>5</v>
       </c>
       <c r="E532" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F532" s="15" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G532" s="15" t="s">
         <v>12</v>
@@ -15694,19 +15691,19 @@
         <v>7</v>
       </c>
       <c r="B533" s="15" t="s">
+        <v>929</v>
+      </c>
+      <c r="C533" s="15" t="s">
         <v>930</v>
       </c>
-      <c r="C533" s="15" t="s">
-        <v>931</v>
-      </c>
       <c r="D533" s="24">
         <v>5</v>
       </c>
       <c r="E533" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F533" s="15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G533" s="15" t="s">
         <v>12</v>
@@ -15717,19 +15714,19 @@
         <v>7</v>
       </c>
       <c r="B534" s="15" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C534" s="15" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D534" s="24">
         <v>5</v>
       </c>
       <c r="E534" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F534" s="15" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G534" s="15" t="s">
         <v>12</v>
@@ -15740,19 +15737,19 @@
         <v>7</v>
       </c>
       <c r="B535" s="15" t="s">
+        <v>932</v>
+      </c>
+      <c r="C535" s="15" t="s">
         <v>933</v>
       </c>
-      <c r="C535" s="15" t="s">
-        <v>934</v>
-      </c>
       <c r="D535" s="24">
         <v>5</v>
       </c>
       <c r="E535" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F535" s="15" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G535" s="15" t="s">
         <v>12</v>
@@ -15763,19 +15760,19 @@
         <v>7</v>
       </c>
       <c r="B536" s="15" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C536" s="15" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D536" s="24">
         <v>5</v>
       </c>
       <c r="E536" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F536" s="15" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G536" s="15" t="s">
         <v>12</v>
@@ -15786,19 +15783,19 @@
         <v>7</v>
       </c>
       <c r="B537" s="15" t="s">
+        <v>935</v>
+      </c>
+      <c r="C537" s="15" t="s">
         <v>936</v>
       </c>
-      <c r="C537" s="15" t="s">
-        <v>937</v>
-      </c>
       <c r="D537" s="24">
         <v>5</v>
       </c>
       <c r="E537" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F537" s="15" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G537" s="15" t="s">
         <v>12</v>
@@ -15809,19 +15806,19 @@
         <v>7</v>
       </c>
       <c r="B538" s="15" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C538" s="15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D538" s="24">
         <v>5</v>
       </c>
       <c r="E538" s="15" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F538" s="15" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G538" s="15" t="s">
         <v>12</v>

--- a/mosip_master/xlsx/location.xlsx
+++ b/mosip_master/xlsx/location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\CIV\CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F4733B-B53D-4E05-823A-AD6C08FDF0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8B975E-0881-4BBC-B7CA-5C52F96367E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3227" uniqueCount="941">
   <si>
     <t>lang_code</t>
   </si>
@@ -2869,9 +2869,6 @@
   </si>
   <si>
     <t>CTIEK</t>
-  </si>
-  <si>
-    <t>commune</t>
   </si>
   <si>
     <t>COTE D'IVOIRE</t>
@@ -3433,8 +3430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I538"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A522" workbookViewId="0">
+      <selection activeCell="E341" sqref="E341:E538"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3480,13 +3477,13 @@
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D2" s="10">
         <v>0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="12" t="s">
@@ -4383,7 +4380,7 @@
         <v>3</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F41" s="22" t="s">
         <v>48</v>
@@ -4406,7 +4403,7 @@
         <v>3</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F42" s="22" t="s">
         <v>48</v>
@@ -4430,7 +4427,7 @@
         <v>3</v>
       </c>
       <c r="E43" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F43" s="22" t="s">
         <v>48</v>
@@ -4453,7 +4450,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F44" s="22" t="s">
         <v>48</v>
@@ -4476,7 +4473,7 @@
         <v>3</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F45" s="22" t="s">
         <v>48</v>
@@ -4499,7 +4496,7 @@
         <v>3</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F46" s="22" t="s">
         <v>48</v>
@@ -4522,7 +4519,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F47" s="22" t="s">
         <v>51</v>
@@ -4545,7 +4542,7 @@
         <v>3</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F48" s="22" t="s">
         <v>51</v>
@@ -4568,7 +4565,7 @@
         <v>3</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F49" s="22" t="s">
         <v>51</v>
@@ -4591,7 +4588,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F50" s="22" t="s">
         <v>53</v>
@@ -4614,7 +4611,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F51" s="22" t="s">
         <v>53</v>
@@ -4637,7 +4634,7 @@
         <v>3</v>
       </c>
       <c r="E52" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F52" s="22" t="s">
         <v>53</v>
@@ -4660,7 +4657,7 @@
         <v>3</v>
       </c>
       <c r="E53" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F53" s="22" t="s">
         <v>55</v>
@@ -4683,7 +4680,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F54" s="22" t="s">
         <v>55</v>
@@ -4706,7 +4703,7 @@
         <v>3</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F55" s="22" t="s">
         <v>55</v>
@@ -4729,7 +4726,7 @@
         <v>3</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F56" s="22" t="s">
         <v>57</v>
@@ -4752,7 +4749,7 @@
         <v>3</v>
       </c>
       <c r="E57" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F57" s="22" t="s">
         <v>57</v>
@@ -4775,7 +4772,7 @@
         <v>3</v>
       </c>
       <c r="E58" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F58" s="22" t="s">
         <v>59</v>
@@ -4798,7 +4795,7 @@
         <v>3</v>
       </c>
       <c r="E59" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F59" s="22" t="s">
         <v>59</v>
@@ -4821,7 +4818,7 @@
         <v>3</v>
       </c>
       <c r="E60" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F60" s="22" t="s">
         <v>61</v>
@@ -4844,7 +4841,7 @@
         <v>3</v>
       </c>
       <c r="E61" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F61" s="22" t="s">
         <v>61</v>
@@ -4867,7 +4864,7 @@
         <v>3</v>
       </c>
       <c r="E62" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F62" s="22" t="s">
         <v>61</v>
@@ -4890,7 +4887,7 @@
         <v>3</v>
       </c>
       <c r="E63" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F63" s="22" t="s">
         <v>61</v>
@@ -4913,7 +4910,7 @@
         <v>3</v>
       </c>
       <c r="E64" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F64" s="22" t="s">
         <v>61</v>
@@ -4936,7 +4933,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F65" s="22" t="s">
         <v>63</v>
@@ -4959,7 +4956,7 @@
         <v>3</v>
       </c>
       <c r="E66" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F66" s="22" t="s">
         <v>63</v>
@@ -4982,7 +4979,7 @@
         <v>3</v>
       </c>
       <c r="E67" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F67" s="22" t="s">
         <v>63</v>
@@ -5005,7 +5002,7 @@
         <v>3</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F68" s="22" t="s">
         <v>63</v>
@@ -5028,7 +5025,7 @@
         <v>3</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F69" s="22" t="s">
         <v>64</v>
@@ -5051,7 +5048,7 @@
         <v>3</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F70" s="22" t="s">
         <v>64</v>
@@ -5074,7 +5071,7 @@
         <v>3</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F71" s="22" t="s">
         <v>65</v>
@@ -5097,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="E72" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F72" s="22" t="s">
         <v>65</v>
@@ -5120,7 +5117,7 @@
         <v>3</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F73" s="22" t="s">
         <v>67</v>
@@ -5143,7 +5140,7 @@
         <v>3</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F74" s="22" t="s">
         <v>67</v>
@@ -5166,7 +5163,7 @@
         <v>3</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F75" s="22" t="s">
         <v>67</v>
@@ -5189,7 +5186,7 @@
         <v>3</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F76" s="22" t="s">
         <v>69</v>
@@ -5212,7 +5209,7 @@
         <v>3</v>
       </c>
       <c r="E77" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F77" s="22" t="s">
         <v>69</v>
@@ -5235,7 +5232,7 @@
         <v>3</v>
       </c>
       <c r="E78" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F78" s="22" t="s">
         <v>69</v>
@@ -5258,7 +5255,7 @@
         <v>3</v>
       </c>
       <c r="E79" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F79" s="22" t="s">
         <v>71</v>
@@ -5281,7 +5278,7 @@
         <v>3</v>
       </c>
       <c r="E80" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F80" s="22" t="s">
         <v>71</v>
@@ -5304,7 +5301,7 @@
         <v>3</v>
       </c>
       <c r="E81" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F81" s="22" t="s">
         <v>71</v>
@@ -5327,7 +5324,7 @@
         <v>3</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F82" s="22" t="s">
         <v>73</v>
@@ -5350,7 +5347,7 @@
         <v>3</v>
       </c>
       <c r="E83" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F83" s="22" t="s">
         <v>75</v>
@@ -5373,7 +5370,7 @@
         <v>3</v>
       </c>
       <c r="E84" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F84" s="22" t="s">
         <v>75</v>
@@ -5396,7 +5393,7 @@
         <v>3</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F85" s="22" t="s">
         <v>75</v>
@@ -5419,7 +5416,7 @@
         <v>3</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F86" s="22" t="s">
         <v>75</v>
@@ -5442,7 +5439,7 @@
         <v>3</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F87" s="22" t="s">
         <v>77</v>
@@ -5465,7 +5462,7 @@
         <v>3</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F88" s="22" t="s">
         <v>77</v>
@@ -5488,7 +5485,7 @@
         <v>3</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F89" s="22" t="s">
         <v>77</v>
@@ -5511,7 +5508,7 @@
         <v>3</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F90" s="22" t="s">
         <v>77</v>
@@ -5534,7 +5531,7 @@
         <v>3</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F91" s="22" t="s">
         <v>77</v>
@@ -5557,7 +5554,7 @@
         <v>3</v>
       </c>
       <c r="E92" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F92" s="22" t="s">
         <v>79</v>
@@ -5580,7 +5577,7 @@
         <v>3</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F93" s="22" t="s">
         <v>79</v>
@@ -5603,7 +5600,7 @@
         <v>3</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F94" s="22" t="s">
         <v>79</v>
@@ -5626,7 +5623,7 @@
         <v>3</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F95" s="22" t="s">
         <v>81</v>
@@ -5649,7 +5646,7 @@
         <v>3</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F96" s="22" t="s">
         <v>81</v>
@@ -5672,7 +5669,7 @@
         <v>3</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F97" s="22" t="s">
         <v>83</v>
@@ -12962,8 +12959,8 @@
       <c r="D414" s="15">
         <v>5</v>
       </c>
-      <c r="E414" s="24" t="s">
-        <v>938</v>
+      <c r="E414" s="15" t="s">
+        <v>653</v>
       </c>
       <c r="F414" s="15" t="s">
         <v>328</v>
@@ -14894,7 +14891,7 @@
       <c r="D498" s="14">
         <v>5</v>
       </c>
-      <c r="E498" s="20" t="s">
+      <c r="E498" s="15" t="s">
         <v>653</v>
       </c>
       <c r="F498" s="22" t="s">

--- a/mosip_master/xlsx/location.xlsx
+++ b/mosip_master/xlsx/location.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6350"/>
+    <workbookView windowWidth="18600" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="data-1729504574484" sheetId="1" r:id="rId1"/>
@@ -1394,8 +1394,8 @@
   <sheetPr/>
   <dimension ref="A1:I81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.81818181818182" defaultRowHeight="14.5"/>
@@ -1445,7 +1445,6 @@
       <c r="G2" t="b">
         <v>1</v>
       </c>
-      <c r="H2"/>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9">
@@ -1470,7 +1469,6 @@
       <c r="G3" t="b">
         <v>1</v>
       </c>
-      <c r="H3"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
@@ -1495,7 +1493,6 @@
       <c r="G4" t="b">
         <v>1</v>
       </c>
-      <c r="H4"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
@@ -1520,7 +1517,6 @@
       <c r="G5" t="b">
         <v>1</v>
       </c>
-      <c r="H5"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
@@ -1545,7 +1541,6 @@
       <c r="G6" t="b">
         <v>1</v>
       </c>
-      <c r="H6"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
@@ -1570,7 +1565,6 @@
       <c r="G7" t="b">
         <v>1</v>
       </c>
-      <c r="H7"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9">
@@ -1595,7 +1589,6 @@
       <c r="G8" t="b">
         <v>1</v>
       </c>
-      <c r="H8"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9">
@@ -1620,7 +1613,6 @@
       <c r="G9" t="b">
         <v>1</v>
       </c>
-      <c r="H9"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9">
@@ -1645,7 +1637,6 @@
       <c r="G10" t="b">
         <v>1</v>
       </c>
-      <c r="H10"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9">
@@ -1670,7 +1661,6 @@
       <c r="G11" t="b">
         <v>1</v>
       </c>
-      <c r="H11"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9">
@@ -1695,7 +1685,6 @@
       <c r="G12" t="b">
         <v>1</v>
       </c>
-      <c r="H12"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9">
@@ -1720,7 +1709,6 @@
       <c r="G13" t="b">
         <v>1</v>
       </c>
-      <c r="H13"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9">
@@ -1745,7 +1733,6 @@
       <c r="G14" t="b">
         <v>1</v>
       </c>
-      <c r="H14"/>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9">
@@ -1770,7 +1757,6 @@
       <c r="G15" t="b">
         <v>1</v>
       </c>
-      <c r="H15"/>
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9">
@@ -1795,7 +1781,6 @@
       <c r="G16" t="b">
         <v>1</v>
       </c>
-      <c r="H16"/>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9">
@@ -1820,7 +1805,6 @@
       <c r="G17" t="b">
         <v>1</v>
       </c>
-      <c r="H17"/>
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9">
@@ -1845,7 +1829,6 @@
       <c r="G18" t="b">
         <v>1</v>
       </c>
-      <c r="H18"/>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9">
@@ -1870,7 +1853,6 @@
       <c r="G19" t="b">
         <v>1</v>
       </c>
-      <c r="H19"/>
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9">
@@ -1895,7 +1877,6 @@
       <c r="G20" t="b">
         <v>1</v>
       </c>
-      <c r="H20"/>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9">
@@ -1920,7 +1901,6 @@
       <c r="G21" t="b">
         <v>1</v>
       </c>
-      <c r="H21"/>
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9">
@@ -1945,7 +1925,6 @@
       <c r="G22" t="b">
         <v>1</v>
       </c>
-      <c r="H22"/>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9">
@@ -1970,7 +1949,6 @@
       <c r="G23" t="b">
         <v>1</v>
       </c>
-      <c r="H23"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9">
@@ -1995,7 +1973,6 @@
       <c r="G24" t="b">
         <v>1</v>
       </c>
-      <c r="H24"/>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9">
@@ -2020,7 +1997,6 @@
       <c r="G25" t="b">
         <v>1</v>
       </c>
-      <c r="H25"/>
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9">
@@ -2045,7 +2021,6 @@
       <c r="G26" t="b">
         <v>1</v>
       </c>
-      <c r="H26"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9">
@@ -2070,7 +2045,6 @@
       <c r="G27" t="b">
         <v>1</v>
       </c>
-      <c r="H27"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9">
@@ -2095,7 +2069,6 @@
       <c r="G28" t="b">
         <v>1</v>
       </c>
-      <c r="H28"/>
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9">
@@ -2120,7 +2093,6 @@
       <c r="G29" t="b">
         <v>1</v>
       </c>
-      <c r="H29"/>
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9">
@@ -2145,7 +2117,6 @@
       <c r="G30" t="b">
         <v>1</v>
       </c>
-      <c r="H30"/>
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9">
@@ -2170,7 +2141,6 @@
       <c r="G31" t="b">
         <v>1</v>
       </c>
-      <c r="H31"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:9">
@@ -2195,7 +2165,6 @@
       <c r="G32" t="b">
         <v>1</v>
       </c>
-      <c r="H32"/>
       <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:9">
@@ -2220,7 +2189,6 @@
       <c r="G33" t="b">
         <v>1</v>
       </c>
-      <c r="H33"/>
       <c r="I33" s="2"/>
     </row>
     <row r="34" spans="1:9">
@@ -2245,7 +2213,6 @@
       <c r="G34" t="b">
         <v>1</v>
       </c>
-      <c r="H34"/>
       <c r="I34" s="2"/>
     </row>
     <row r="35" spans="1:9">
@@ -2270,7 +2237,6 @@
       <c r="G35" t="b">
         <v>1</v>
       </c>
-      <c r="H35"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9">
@@ -2295,7 +2261,6 @@
       <c r="G36" t="b">
         <v>1</v>
       </c>
-      <c r="H36"/>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9">
@@ -2320,7 +2285,6 @@
       <c r="G37" t="b">
         <v>1</v>
       </c>
-      <c r="H37"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:9">
@@ -2345,7 +2309,6 @@
       <c r="G38" t="b">
         <v>1</v>
       </c>
-      <c r="H38"/>
       <c r="I38" s="2"/>
     </row>
     <row r="39" spans="1:9">
@@ -2370,7 +2333,6 @@
       <c r="G39" t="b">
         <v>1</v>
       </c>
-      <c r="H39"/>
       <c r="I39" s="2"/>
     </row>
     <row r="40" spans="1:9">
@@ -2395,7 +2357,6 @@
       <c r="G40" t="b">
         <v>1</v>
       </c>
-      <c r="H40"/>
       <c r="I40" s="2"/>
     </row>
     <row r="41" spans="1:9">
@@ -2420,7 +2381,6 @@
       <c r="G41" t="b">
         <v>1</v>
       </c>
-      <c r="H41"/>
       <c r="I41" s="2"/>
     </row>
     <row r="42" spans="1:9">
@@ -2445,7 +2405,6 @@
       <c r="G42" t="b">
         <v>1</v>
       </c>
-      <c r="H42"/>
       <c r="I42" s="2"/>
     </row>
     <row r="43" spans="1:9">
@@ -2470,7 +2429,6 @@
       <c r="G43" t="b">
         <v>1</v>
       </c>
-      <c r="H43"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9">
@@ -2495,7 +2453,6 @@
       <c r="G44" t="b">
         <v>1</v>
       </c>
-      <c r="H44"/>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9">
@@ -2520,7 +2477,6 @@
       <c r="G45" t="b">
         <v>1</v>
       </c>
-      <c r="H45"/>
       <c r="I45" s="2"/>
     </row>
     <row r="46" spans="1:9">
@@ -2545,7 +2501,6 @@
       <c r="G46" t="b">
         <v>1</v>
       </c>
-      <c r="H46"/>
       <c r="I46" s="2"/>
     </row>
     <row r="47" spans="1:9">
@@ -2570,7 +2525,6 @@
       <c r="G47" t="b">
         <v>1</v>
       </c>
-      <c r="H47"/>
       <c r="I47" s="2"/>
     </row>
     <row r="48" spans="1:9">
@@ -2595,7 +2549,6 @@
       <c r="G48" t="b">
         <v>1</v>
       </c>
-      <c r="H48"/>
       <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:9">
@@ -2620,7 +2573,6 @@
       <c r="G49" t="b">
         <v>1</v>
       </c>
-      <c r="H49"/>
       <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:7">
@@ -2680,7 +2632,7 @@
         <v>4</v>
       </c>
       <c r="D52" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="E52" t="s">
         <v>18</v>
